--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
     <t xml:space="preserve">Tiempo [s] </t>
   </si>
   <si>
-    <t>Posicion [m]</t>
+    <t>Velocidad [m/s]</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.43</v>
+        <v>0.08611938600000033</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>0.06006006006006006</v>
       </c>
       <c r="B3">
-        <v>0.4024412366616599</v>
+        <v>-1.614875610483538</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>0.1201201201201201</v>
       </c>
       <c r="B4">
-        <v>0.3777561639010316</v>
+        <v>-3.138408564965656</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>0.1801801801801802</v>
       </c>
       <c r="B5">
-        <v>0.358485331033604</v>
+        <v>-4.327679957225746</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>0.2402402402402402</v>
       </c>
       <c r="B6">
-        <v>0.3466082092760398</v>
+        <v>-5.060529760735107</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>0.3003003003003003</v>
       </c>
       <c r="B7">
-        <v>0.3433398694116153</v>
+        <v>-5.261985152012215</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>0.3603603603603603</v>
       </c>
       <c r="B8">
-        <v>0.3490066855500311</v>
+        <v>-4.911929864509501</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>0.4204204204204204</v>
       </c>
       <c r="B9">
-        <v>0.3630137789140077</v>
+        <v>-4.047110711942354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -460,7 +460,7 @@
         <v>0.4804804804804805</v>
       </c>
       <c r="B10">
-        <v>0.3839074454179693</v>
+        <v>-2.75728136996393</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -468,7 +468,7 @@
         <v>0.5405405405405406</v>
       </c>
       <c r="B11">
-        <v>0.4095260178422398</v>
+        <v>-1.175887961586477</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -476,7 +476,7 @@
         <v>0.6006006006006006</v>
       </c>
       <c r="B12">
-        <v>0.4372235073034434</v>
+        <v>0.5337369786477654</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -484,7 +484,7 @@
         <v>0.6606606606606606</v>
       </c>
       <c r="B13">
-        <v>0.4641428871176708</v>
+        <v>2.195243855197696</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -492,7 +492,7 @@
         <v>0.7207207207207207</v>
       </c>
       <c r="B14">
-        <v>0.4875107941268711</v>
+        <v>3.637456400853972</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -500,7 +500,7 @@
         <v>0.7807807807807807</v>
       </c>
       <c r="B15">
-        <v>0.5049232495738547</v>
+        <v>4.712006799906086</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -508,7 +508,7 @@
         <v>0.8408408408408409</v>
       </c>
       <c r="B16">
-        <v>0.5145929640727562</v>
+        <v>5.308598745789467</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -516,7 +516,7 @@
         <v>0.9009009009009009</v>
       </c>
       <c r="B17">
-        <v>0.5155327861286962</v>
+        <v>5.366328306320598</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -524,7 +524,7 @@
         <v>0.960960960960961</v>
       </c>
       <c r="B18">
-        <v>0.5076564656131946</v>
+        <v>4.879900659480655</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -532,7 +532,7 @@
         <v>1.021021021021021</v>
       </c>
       <c r="B19">
-        <v>0.4917864479934125</v>
+        <v>3.900108205679921</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -540,7 +540,7 @@
         <v>1.081081081081081</v>
       </c>
       <c r="B20">
-        <v>0.4695680090112321</v>
+        <v>2.528527755398831</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -548,7 +548,7 @@
         <v>1.141141141141141</v>
       </c>
       <c r="B21">
-        <v>0.4432986928910645</v>
+        <v>0.9069903240287226</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -556,7 +556,7 @@
         <v>1.201201201201201</v>
       </c>
       <c r="B22">
-        <v>0.4156907350741417</v>
+        <v>-0.7970848722793685</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -564,7 +564,7 @@
         <v>1.261261261261261</v>
       </c>
       <c r="B23">
-        <v>0.3895910356007122</v>
+        <v>-2.407975717323992</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -572,7 +572,7 @@
         <v>1.321321321321321</v>
       </c>
       <c r="B24">
-        <v>0.3676875942369321</v>
+        <v>-3.759777187967341</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -580,7 +580,7 @@
         <v>1.381381381381381</v>
       </c>
       <c r="B25">
-        <v>0.3522326785641371</v>
+        <v>-4.713487580686146</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -588,7 +588,7 @@
         <v>1.441441441441441</v>
       </c>
       <c r="B26">
-        <v>0.3448112349676548</v>
+        <v>-5.171301322868379</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -596,7 +596,7 @@
         <v>1.501501501501501</v>
       </c>
       <c r="B27">
-        <v>0.3461783550905901</v>
+        <v>-5.086638747447162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -604,7 +604,7 @@
         <v>1.561561561561561</v>
       </c>
       <c r="B28">
-        <v>0.3561824645335043</v>
+        <v>-4.468884343366753</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -612,7 +612,7 @@
         <v>1.621621621621622</v>
       </c>
       <c r="B29">
-        <v>0.373782045802528</v>
+        <v>-3.382351588071769</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -620,7 +620,7 @@
         <v>1.681681681681682</v>
       </c>
       <c r="B30">
-        <v>0.3971540583854575</v>
+        <v>-1.939588061660483</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -628,7 +628,7 @@
         <v>1.741741741741742</v>
       </c>
       <c r="B31">
-        <v>0.4238827707706505</v>
+        <v>-0.28971769420303</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -636,7 +636,7 @@
         <v>1.801801801801802</v>
       </c>
       <c r="B32">
-        <v>0.4512094456893904</v>
+        <v>1.396972376459637</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -644,7 +644,7 @@
         <v>1.861861861861862</v>
       </c>
       <c r="B33">
-        <v>0.4763170721012649</v>
+        <v>2.946607296269837</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -652,7 +652,7 @@
         <v>1.921921921921922</v>
       </c>
       <c r="B34">
-        <v>0.4966207568860809</v>
+        <v>4.199648379911237</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -660,7 +660,7 @@
         <v>1.981981981981982</v>
       </c>
       <c r="B35">
-        <v>0.5100338416257298</v>
+        <v>5.027317732000415</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -668,7 +668,7 @@
         <v>2.042042042042042</v>
       </c>
       <c r="B36">
-        <v>0.5151823480033318</v>
+        <v>5.344832706438321</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -676,7 +676,7 @@
         <v>2.102102102102102</v>
       </c>
       <c r="B37">
-        <v>0.5115457138845594</v>
+        <v>5.120090138254377</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -684,7 +684,7 @@
         <v>2.162162162162162</v>
       </c>
       <c r="B38">
-        <v>0.4995094053998033</v>
+        <v>4.376910880917098</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>2.222222222222222</v>
       </c>
       <c r="B39">
-        <v>0.4803240899121043</v>
+        <v>3.192516877278423</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>2.282282282282282</v>
       </c>
       <c r="B40">
-        <v>0.4559756910402409</v>
+        <v>1.689507785120096</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>2.342342342342342</v>
       </c>
       <c r="B41">
-        <v>0.4289798261423226</v>
+        <v>0.02317072917371535</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -716,7 +716,7 @@
         <v>2.402402402402402</v>
       </c>
       <c r="B42">
-        <v>0.402121903396893</v>
+        <v>-1.634563293871808</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2.462462462462462</v>
       </c>
       <c r="B43">
-        <v>0.3781697300809069</v>
+        <v>-3.11285883133474</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2.522522522522523</v>
       </c>
       <c r="B44">
-        <v>0.3595882840094728</v>
+        <v>-4.259580928380767</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2.582582582582583</v>
       </c>
       <c r="B45">
-        <v>0.3482860411364045</v>
+        <v>-4.956951418304274</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2.642642642642643</v>
       </c>
       <c r="B46">
-        <v>0.3454189644238461</v>
+        <v>-5.133645381358954</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -756,7 +756,7 @@
         <v>2.702702702702703</v>
       </c>
       <c r="B47">
-        <v>0.3512722848037185</v>
+        <v>-4.7720854378847</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>2.762762762762763</v>
       </c>
       <c r="B48">
-        <v>0.3652321633470518</v>
+        <v>-3.910187961787397</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>2.822822822822823</v>
       </c>
       <c r="B49">
-        <v>0.3858500459190766</v>
+        <v>-2.637387991346977</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>2.882882882882883</v>
       </c>
       <c r="B50">
-        <v>0.4109929653033982</v>
+        <v>-1.085359461709436</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>2.942942942942943</v>
       </c>
       <c r="B51">
-        <v>0.4380641962367947</v>
+        <v>0.5856064232000692</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>3.003003003003003</v>
       </c>
       <c r="B52">
-        <v>0.4642714371813054</v>
+        <v>2.203155559815317</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>3.063063063063063</v>
       </c>
       <c r="B53">
-        <v>0.4869148222958451</v>
+        <v>3.600648399829556</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>3.123123123123123</v>
       </c>
       <c r="B54">
-        <v>0.5036650570256913</v>
+        <v>4.634326861901966</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>3.183183183183183</v>
       </c>
       <c r="B55">
-        <v>0.5128030246841349</v>
+        <v>5.198102221808752</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>3.243243243243243</v>
       </c>
       <c r="B56">
-        <v>0.5133962170126705</v>
+        <v>5.234442833315415</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>3.303303303303303</v>
       </c>
       <c r="B57">
-        <v>0.5053938825696898</v>
+        <v>4.740244331482865</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>3.363363363363364</v>
       </c>
       <c r="B58">
-        <v>0.4896311857313933</v>
+        <v>3.767083432699761</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -852,7 +852,7 @@
         <v>3.423423423423424</v>
       </c>
       <c r="B59">
-        <v>0.4677420582414408</v>
+        <v>2.41583599942132</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -860,7 +860,7 @@
         <v>3.483483483483484</v>
       </c>
       <c r="B60">
-        <v>0.4419898357693581</v>
+        <v>0.8262208794147561</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -868,7 +868,7 @@
         <v>3.543543543543544</v>
       </c>
       <c r="B61">
-        <v>0.4150332339582596</v>
+        <v>-0.8376467038063385</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -876,7 +876,7 @@
         <v>3.603603603603604</v>
       </c>
       <c r="B62">
-        <v>0.3896518610176304</v>
+        <v>-2.404198494325927</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -884,7 +884,7 @@
         <v>3.663663663663664</v>
       </c>
       <c r="B63">
-        <v>0.3684596046743445</v>
+        <v>-3.712104067816274</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -892,7 +892,7 @@
         <v>3.723723723723724</v>
       </c>
       <c r="B64">
-        <v>0.3536354465288173</v>
+        <v>-4.626885089135799</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -900,7 +900,7 @@
         <v>3.783783783783784</v>
       </c>
       <c r="B65">
-        <v>0.3466994248860857</v>
+        <v>-5.054742007973729</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>3.843843843843844</v>
       </c>
       <c r="B66">
-        <v>0.3483567804498777</v>
+        <v>-4.952171601853084</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>3.903903903903904</v>
       </c>
       <c r="B67">
-        <v>0.3584262643590402</v>
+        <v>-4.330389298063702</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>3.963963963963964</v>
       </c>
       <c r="B68">
-        <v>0.3758598948659958</v>
+        <v>-3.254106823260376</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>4.024024024024024</v>
       </c>
       <c r="B69">
-        <v>0.3988520154150769</v>
+        <v>-1.834798014976279</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -940,7 +940,7 @@
         <v>4.084084084084084</v>
       </c>
       <c r="B70">
-        <v>0.425026306094192</v>
+        <v>-0.2191535173873788</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -948,7 +948,7 @@
         <v>4.144144144144144</v>
       </c>
       <c r="B71">
-        <v>0.4516813803554304</v>
+        <v>1.426079934678061</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -956,7 +956,7 @@
         <v>4.204204204204204</v>
       </c>
       <c r="B72">
-        <v>0.4760695846426307</v>
+        <v>2.931308788428438</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>4.264264264264265</v>
       </c>
       <c r="B73">
-        <v>0.495680227518123</v>
+        <v>4.141574427298595</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>4.324324324324325</v>
       </c>
       <c r="B74">
-        <v>0.5084980433401822</v>
+        <v>4.932505407666378</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>4.384384384384385</v>
       </c>
       <c r="B75">
-        <v>0.513210283342763</v>
+        <v>5.223098000681062</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -988,7 +988,7 @@
         <v>4.444444444444445</v>
       </c>
       <c r="B76">
-        <v>0.5093411537548101</v>
+        <v>4.98401173179322</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -996,7 +996,7 @@
         <v>4.504504504504505</v>
       </c>
       <c r="B77">
-        <v>0.49729983406155</v>
+        <v>4.240530430295022</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>4.564564564564565</v>
       </c>
       <c r="B78">
-        <v>0.4783372316606884</v>
+        <v>3.069890105424466</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>4.624624624624625</v>
       </c>
       <c r="B79">
-        <v>0.454416040670382</v>
+        <v>1.593255882825995</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>4.684684684684685</v>
       </c>
       <c r="B80">
-        <v>0.4280076019611229</v>
+        <v>-0.0368186404710988</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>4.744744744744745</v>
       </c>
       <c r="B81">
-        <v>0.401836588941884</v>
+        <v>-1.652151695515585</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>4.804804804804805</v>
       </c>
       <c r="B82">
-        <v>0.3785998951562448</v>
+        <v>-3.086285128160498</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>4.864864864864865</v>
       </c>
       <c r="B83">
-        <v>0.3606887264531994</v>
+        <v>-4.191637465764493</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>4.924924924924925</v>
       </c>
       <c r="B84">
-        <v>0.3499425349924093</v>
+        <v>-4.854690711959917</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>4.984984984984985</v>
       </c>
       <c r="B85">
-        <v>0.3474601159297245</v>
+        <v>-5.007648109152813</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>5.045045045045045</v>
       </c>
       <c r="B86">
-        <v>0.3534872656807447</v>
+        <v>-4.635365709078995</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>5.105105105105105</v>
       </c>
       <c r="B87">
-        <v>0.3673924866595273</v>
+        <v>-3.776849127307947</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>5.165165165165165</v>
       </c>
       <c r="B88">
-        <v>0.3877331353729227</v>
+        <v>-2.521167830259342</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>5.225225225225225</v>
       </c>
       <c r="B89">
-        <v>0.4124050867551473</v>
+        <v>-0.9982148112637792</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>5.285285285285285</v>
       </c>
       <c r="B90">
-        <v>0.4388603888688895</v>
+        <v>0.6347297739944261</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>5.345345345345345</v>
       </c>
       <c r="B91">
-        <v>0.4643703938844909</v>
+        <v>2.209241163554966</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>5.405405405405405</v>
       </c>
       <c r="B92">
-        <v>0.4863071918251957</v>
+        <v>3.563121370686131</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>5.465465465465465</v>
       </c>
       <c r="B93">
-        <v>0.5024143203042055</v>
+        <v>4.557107726282506</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>5.525525525525525</v>
       </c>
       <c r="B94">
-        <v>0.5110388639654107</v>
+        <v>5.089197406835555</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>5.585585585585585</v>
       </c>
       <c r="B95">
-        <v>0.5113010703981634</v>
+        <v>5.105114560382008</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>5.645645645645645</v>
       </c>
       <c r="B96">
-        <v>0.5031840778512823</v>
+        <v>4.603845976647094</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>5.705705705705705</v>
       </c>
       <c r="B97">
-        <v>0.4875346044903694</v>
+        <v>3.637680788054903</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>5.765765765765765</v>
       </c>
       <c r="B98">
-        <v>0.4659746363557901</v>
+        <v>2.30675678826915</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>5.825825825825826</v>
       </c>
       <c r="B99">
-        <v>0.4407333235987219</v>
+        <v>0.7486820992445863</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>5.885885885885886</v>
       </c>
       <c r="B100">
-        <v>0.4144165067090403</v>
+        <v>-0.8756922392033936</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>5.945945945945946</v>
       </c>
       <c r="B101">
-        <v>0.3897377011263112</v>
+        <v>-2.398877804704038</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>6.006006006006006</v>
       </c>
       <c r="B102">
-        <v>0.3692383117661743</v>
+        <v>-3.66401819796508</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>6.066066066066066</v>
       </c>
       <c r="B103">
-        <v>0.3550259252125774</v>
+        <v>-4.541041728799481</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>6.126126126126126</v>
       </c>
       <c r="B104">
-        <v>0.3485576291904832</v>
+        <v>-4.940034045246087</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>6.186186186186186</v>
       </c>
       <c r="B105">
-        <v>0.3504906356795845</v>
+        <v>-4.820455902029387</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>6.246246246246246</v>
       </c>
       <c r="B106">
-        <v>0.3606155206545386</v>
+        <v>-4.195261134683244</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>6.306306306306306</v>
       </c>
       <c r="B107">
-        <v>0.3778788603686927</v>
+        <v>-3.129496638174964</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>6.366366366366366</v>
       </c>
       <c r="B108">
-        <v>0.4004928226608531</v>
+        <v>-1.733535341106091</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>6.426426426426427</v>
       </c>
       <c r="B109">
-        <v>0.4261203131552136</v>
+        <v>-0.1516461060452443</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>6.486486486486487</v>
       </c>
       <c r="B110">
-        <v>0.4521165033971277</v>
+        <v>1.452915792871393</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>6.546546546546547</v>
       </c>
       <c r="B111">
-        <v>0.4758017805480338</v>
+        <v>2.914756813246492</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>6.606606606606607</v>
       </c>
       <c r="B112">
-        <v>0.4947379502897584</v>
+        <v>4.083393184979724</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="B113">
-        <v>0.5069792235408711</v>
+        <v>4.838741635787114</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>6.726726726726727</v>
       </c>
       <c r="B114">
-        <v>0.5112721509592399</v>
+        <v>5.103458221342634</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>6.786786786786787</v>
       </c>
       <c r="B115">
-        <v>0.5071839620349212</v>
+        <v>4.850857451336204</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>6.846846846846847</v>
       </c>
       <c r="B116">
-        <v>0.4951461691558079</v>
+        <v>4.107600937547717</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>6.906906906906907</v>
       </c>
       <c r="B117">
-        <v>0.4764090457782685</v>
+        <v>2.950884827772321</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>6.966966966966967</v>
       </c>
       <c r="B118">
-        <v>0.4529117784764533</v>
+        <v>1.500422573000687</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>7.027027027027027</v>
       </c>
       <c r="B119">
-        <v>0.42708177745347</v>
+        <v>-0.09394439263643206</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>7.087087087087087</v>
       </c>
       <c r="B120">
-        <v>0.4015839146342997</v>
+        <v>-1.667725904447202</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>7.147147147147147</v>
       </c>
       <c r="B121">
-        <v>0.3790455936819165</v>
+        <v>-3.058753207394935</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>7.207207207207207</v>
       </c>
       <c r="B122">
-        <v>0.3617860155609343</v>
+        <v>-4.123889231355746</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>7.267267267267267</v>
       </c>
       <c r="B123">
-        <v>0.351577536415228</v>
+        <v>-4.753757157850318</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>7.327327327327327</v>
       </c>
       <c r="B124">
-        <v>0.3494636731974345</v>
+        <v>-4.883971761608955</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>7.387387387387387</v>
       </c>
       <c r="B125">
-        <v>0.3556524445387079</v>
+        <v>-4.501720275544502</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>7.447447447447447</v>
       </c>
       <c r="B126">
-        <v>0.3694959475971433</v>
+        <v>-3.64702020670509</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>7.507507507507508</v>
       </c>
       <c r="B127">
-        <v>0.3895581709060671</v>
+        <v>-2.408530940945012</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>7.567567567567568</v>
       </c>
       <c r="B128">
-        <v>0.4137639472196115</v>
+        <v>-0.9143574097111008</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>7.627627627627628</v>
       </c>
       <c r="B129">
-        <v>0.4396135966952862</v>
+        <v>0.6812003226233787</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>7.687687687687688</v>
       </c>
       <c r="B130">
-        <v>0.464441059486674</v>
+        <v>2.213581038461534</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>7.747747747747748</v>
       </c>
       <c r="B131">
-        <v>0.4856888617817745</v>
+        <v>3.524934498484697</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>7.807807807807808</v>
       </c>
       <c r="B132">
-        <v>0.5011715568593367</v>
+        <v>4.480381317262848</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>7.867867867867868</v>
       </c>
       <c r="B133">
-        <v>0.5093005049578871</v>
+        <v>4.981885707257804</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>7.927927927927928</v>
       </c>
       <c r="B134">
-        <v>0.5092468731439721</v>
+        <v>4.978314268221615</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>7.987987987987988</v>
       </c>
       <c r="B135">
-        <v>0.5010261314990681</v>
+        <v>4.470648798539705</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>8.048048048048049</v>
       </c>
       <c r="B136">
-        <v>0.4854954328475475</v>
+        <v>3.511821785121263</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>8.108108108108109</v>
       </c>
       <c r="B137">
-        <v>0.4642642519273734</v>
+        <v>2.201198060307558</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>8.168168168168169</v>
       </c>
       <c r="B138">
-        <v>0.4395275989217813</v>
+        <v>0.6742778512312936</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>8.228228228228229</v>
       </c>
       <c r="B139">
-        <v>0.4138390904302773</v>
+        <v>-0.911311769079435</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>8.288288288288289</v>
       </c>
       <c r="B140">
-        <v>0.3898473382427569</v>
+        <v>-2.392088799145959</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>8.348348348348349</v>
       </c>
       <c r="B141">
-        <v>0.3700228682370614</v>
+        <v>-3.615571862554598</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>8.408408408408409</v>
       </c>
       <c r="B142">
-        <v>0.3564037246187238</v>
+        <v>-4.455981556658164</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>8.468468468468469</v>
       </c>
       <c r="B143">
-        <v>0.350385954800192</v>
+        <v>-4.827170819495842</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>8.528528528528529</v>
       </c>
       <c r="B144">
-        <v>0.3525805129921862</v>
+        <v>-4.69145507964693</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>8.588588588588589</v>
       </c>
       <c r="B145">
-        <v>0.3627512493025588</v>
+        <v>-4.063437136881649</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>8.648648648648649</v>
       </c>
       <c r="B146">
-        <v>0.3798402766516938</v>
+        <v>-3.00843866377049</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>8.708708708708709</v>
       </c>
       <c r="B147">
-        <v>0.4020779950183548</v>
+        <v>-1.635706531129441</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>8.768768768768769</v>
       </c>
       <c r="B148">
-        <v>0.4271663310593902</v>
+        <v>-0.08710046193739308</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>8.828828828828829</v>
       </c>
       <c r="B149">
-        <v>0.4525162194807668</v>
+        <v>1.477566646278809</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>8.888888888888889</v>
       </c>
       <c r="B150">
-        <v>0.4755147854429572</v>
+        <v>2.897020838249331</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>8.948948948948949</v>
       </c>
       <c r="B151">
-        <v>0.493794656117884</v>
+        <v>4.025149754383455</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>9.009009009009009</v>
       </c>
       <c r="B152">
-        <v>0.5054776435875005</v>
+        <v>4.746042533153743</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>9.069069069069069</v>
       </c>
       <c r="B153">
-        <v>0.5093677162901354</v>
+        <v>4.985898874801268</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>9.129129129129129</v>
       </c>
       <c r="B154">
-        <v>0.5050734330165388</v>
+        <v>4.72058372375515</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>9.189189189189189</v>
       </c>
       <c r="B155">
-        <v>0.4930473071312276</v>
+        <v>3.978054276017915</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>9.24924924924925</v>
       </c>
       <c r="B156">
-        <v>0.4745381450858202</v>
+        <v>2.8354154150977</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>9.30930930930931</v>
       </c>
       <c r="B157">
-        <v>0.4514613769589305</v>
+        <v>1.410913570059988</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>9.36936936936937</v>
       </c>
       <c r="B158">
-        <v>0.4262008423937974</v>
+        <v>-0.14829974168475</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>9.42942942942943</v>
       </c>
       <c r="B159">
-        <v>0.4013625431452402</v>
+        <v>-1.681368458446014</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>9.48948948948949</v>
       </c>
       <c r="B160">
-        <v>0.3795057988405859</v>
+        <v>-3.030326436872095</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>9.54954954954955</v>
       </c>
       <c r="B161">
-        <v>0.3628795404732906</v>
+        <v>-4.056373915654214</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>9.60960960960961</v>
       </c>
       <c r="B162">
-        <v>0.3531909129530945</v>
+        <v>-4.654158915962563</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>9.66966966966967</v>
       </c>
       <c r="B163">
-        <v>0.3514299952519753</v>
+        <v>-4.76259416311742</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>9.72972972972973</v>
       </c>
       <c r="B164">
-        <v>0.3577686342810896</v>
+        <v>-4.371098948351709</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>9.78978978978979</v>
       </c>
       <c r="B165">
-        <v>0.3715437286125961</v>
+        <v>-3.520628204235318</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1708,7 +1708,7 @@
         <v>9.84984984984985</v>
       </c>
       <c r="B166">
-        <v>0.3913265822079134</v>
+        <v>-2.29938907149377</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1716,7 +1716,7 @@
         <v>9.90990990990991</v>
       </c>
       <c r="B167">
-        <v>0.4150710759788335</v>
+        <v>-0.8336928627455444</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1724,7 +1724,7 @@
         <v>9.96996996996997</v>
       </c>
       <c r="B168">
-        <v>0.4403252908619883</v>
+        <v>0.7251088700565318</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1732,7 +1732,7 @@
         <v>10.03003003003003</v>
       </c>
       <c r="B169">
-        <v>0.4644846954523018</v>
+        <v>2.216253038595884</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1740,7 +1740,7 @@
         <v>10.09009009009009</v>
       </c>
       <c r="B170">
-        <v>0.4850607541968538</v>
+        <v>3.486144682477298</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1748,7 +1748,7 @@
         <v>10.15015015015015</v>
       </c>
       <c r="B171">
-        <v>0.4999372546771825</v>
+        <v>4.404177740717512</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>10.21021021021021</v>
       </c>
       <c r="B172">
-        <v>0.5075879518381023</v>
+        <v>4.876167365421032</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>10.27027027027027</v>
       </c>
       <c r="B173">
-        <v>0.5072331457745273</v>
+        <v>4.854012346962381</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>10.33033033033033</v>
       </c>
       <c r="B174">
-        <v>0.4989191303877699</v>
+        <v>4.340596422935929</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1780,7 +1780,7 @@
         <v>10.39039039039039</v>
       </c>
       <c r="B175">
-        <v>0.4835124186614793</v>
+        <v>3.389429127765053</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -1788,7 +1788,7 @@
         <v>10.45045045045045</v>
       </c>
       <c r="B176">
-        <v>0.4626094432560925</v>
+        <v>2.099069589048398</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -1796,7 +1796,7 @@
         <v>10.51051051051051</v>
       </c>
       <c r="B177">
-        <v>0.4383711413770927</v>
+        <v>0.6029142929771285</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1804,7 +1804,7 @@
         <v>10.57057057057057</v>
       </c>
       <c r="B178">
-        <v>0.413299562858767</v>
+        <v>-0.9445930759595198</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -1812,7 +1812,7 @@
         <v>10.63063063063063</v>
       </c>
       <c r="B179">
-        <v>0.3899795946611065</v>
+        <v>-2.383904160809258</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -1820,7 +1820,7 @@
         <v>10.69069069069069</v>
       </c>
       <c r="B180">
-        <v>0.3708124620155758</v>
+        <v>-3.566815173003113</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -1828,7 +1828,7 @@
         <v>10.75075075075075</v>
       </c>
       <c r="B181">
-        <v>0.3577684815579683</v>
+        <v>-4.371726975340416</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1836,7 +1836,7 @@
         <v>10.81081081081081</v>
       </c>
       <c r="B182">
-        <v>0.3521845242928758</v>
+        <v>-4.716144749418483</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1844,7 +1844,7 @@
         <v>10.87087087087087</v>
       </c>
       <c r="B183">
-        <v>0.354627007509192</v>
+        <v>-4.565132387230626</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -1852,7 +1852,7 @@
         <v>10.93093093093093</v>
       </c>
       <c r="B184">
-        <v>0.3648344560610943</v>
+        <v>-3.934855213644796</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>10.99099099099099</v>
       </c>
       <c r="B185">
-        <v>0.3817454559571868</v>
+        <v>-2.890851895382913</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>11.05105105105105</v>
       </c>
       <c r="B186">
-        <v>0.4036090156019956</v>
+        <v>-1.541220038047575</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1876,7 +1876,7 @@
         <v>11.11111111111111</v>
       </c>
       <c r="B187">
-        <v>0.428165860736109</v>
+        <v>-0.02542394336500893</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1884,7 +1884,7 @@
         <v>11.17117117117117</v>
       </c>
       <c r="B188">
-        <v>0.4528818926434217</v>
+        <v>1.500116682324338</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>11.23123123123123</v>
       </c>
       <c r="B189">
-        <v>0.4752096860609766</v>
+        <v>2.878167930511567</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>11.29129129129129</v>
       </c>
       <c r="B190">
-        <v>0.4928510427708755</v>
+        <v>3.966887191111947</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -1908,7 +1908,7 @@
         <v>11.35135135135135</v>
       </c>
       <c r="B191">
-        <v>0.503993540843945</v>
+        <v>4.654422735766655</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -1916,7 +1916,7 @@
         <v>11.41141141141141</v>
       </c>
       <c r="B192">
-        <v>0.5074967323915697</v>
+        <v>4.870404703603905</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -1924,7 +1924,7 @@
         <v>11.47147147147147</v>
       </c>
       <c r="B193">
-        <v>0.5030088614865316</v>
+        <v>4.59314700689922</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -1932,7 +1932,7 @@
         <v>11.53153153153153</v>
       </c>
       <c r="B194">
-        <v>0.4910021577414743</v>
+        <v>3.851823140676068</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -1940,7 +1940,7 @@
         <v>11.59159159159159</v>
       </c>
       <c r="B195">
-        <v>0.4727231671323446</v>
+        <v>2.723397764816707</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -1948,7 +1948,7 @@
         <v>11.65165165165165</v>
       </c>
       <c r="B196">
-        <v>0.4500633422069805</v>
+        <v>1.324636661880869</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -1956,7 +1956,7 @@
         <v>11.71171171171171</v>
       </c>
       <c r="B197">
-        <v>0.4253633255334787</v>
+        <v>-0.1999754960519509</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -1964,7 +1964,7 @@
         <v>11.77177177177177</v>
       </c>
       <c r="B198">
-        <v>0.40117117748749</v>
+        <v>-1.693159405257801</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1972,7 +1972,7 @@
         <v>11.83183183183183</v>
       </c>
       <c r="B199">
-        <v>0.3799795213620741</v>
+        <v>-3.001065867010371</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1980,7 +1980,7 @@
         <v>11.89189189189189</v>
       </c>
       <c r="B200">
-        <v>0.3639687212173041</v>
+        <v>-3.989127302984614</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>11.95195195195195</v>
       </c>
       <c r="B201">
-        <v>0.3547825532048705</v>
+        <v>-4.555902847300031</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>12.01201201201201</v>
       </c>
       <c r="B202">
-        <v>0.3533594501756558</v>
+        <v>-4.643492579411109</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>12.07207207207207</v>
       </c>
       <c r="B203">
-        <v>0.3598366439564912</v>
+        <v>-4.243451776916073</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>12.13213213213213</v>
       </c>
       <c r="B204">
-        <v>0.3735369958044826</v>
+        <v>-3.397601133970111</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2020,7 +2020,7 @@
         <v>12.19219219219219</v>
       </c>
       <c r="B205">
-        <v>0.3930397718151916</v>
+        <v>-2.193655646271256</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2028,7 +2028,7 @@
         <v>12.25225225225225</v>
       </c>
       <c r="B206">
-        <v>0.4163279671750743</v>
+        <v>-0.7561289452317282</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2036,7 +2036,7 @@
         <v>12.31231231231231</v>
       </c>
       <c r="B207">
-        <v>0.4409969030193261</v>
+        <v>0.7665437793523378</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2044,7 +2044,7 @@
         <v>12.37237237237237</v>
       </c>
       <c r="B208">
-        <v>0.4645025234699605</v>
+        <v>2.217332562943949</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>12.43243243243243</v>
       </c>
       <c r="B209">
-        <v>0.4844237551453006</v>
+        <v>3.446806602718239</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2060,7 +2060,7 @@
         <v>12.49249249249249</v>
       </c>
       <c r="B210">
-        <v>0.4987118733079104</v>
+        <v>4.328525347624027</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2068,7 +2068,7 @@
         <v>12.55255255255255</v>
       </c>
       <c r="B211">
-        <v>0.5059011907886073</v>
+        <v>4.772041513369967</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2076,7 +2076,7 @@
         <v>12.61261261261261</v>
       </c>
       <c r="B212">
-        <v>0.5052594031039849</v>
+        <v>4.732178834672014</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2084,7 +2084,7 @@
         <v>12.67267267267267</v>
       </c>
       <c r="B213">
-        <v>0.4968621685391224</v>
+        <v>4.21363291715285</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2092,7 +2092,7 @@
         <v>12.73273273273273</v>
       </c>
       <c r="B214">
-        <v>0.4815843290428204</v>
+        <v>3.270426708527029</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2100,7 +2100,7 @@
         <v>12.79279279279279</v>
       </c>
       <c r="B215">
-        <v>0.4610087780002143</v>
+        <v>2.000282960398085</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>12.85285285285285</v>
       </c>
       <c r="B216">
-        <v>0.4372624670298916</v>
+        <v>0.5344998306560291</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>12.91291291291291</v>
       </c>
       <c r="B217">
-        <v>0.4127965414635771</v>
+        <v>-0.975621489887653</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>12.97297297297297</v>
       </c>
       <c r="B218">
-        <v>0.3901333316145459</v>
+        <v>-2.374394169461083</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>13.03303303303303</v>
       </c>
       <c r="B219">
-        <v>0.3716063151640151</v>
+        <v>-3.517796134062869</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>13.09309309309309</v>
       </c>
       <c r="B220">
-        <v>0.3591198586574547</v>
+        <v>-4.288298794285264</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>13.15315315315315</v>
       </c>
       <c r="B221">
-        <v>0.3539534750948003</v>
+        <v>-4.606947337566531</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>13.21321321321321</v>
       </c>
       <c r="B222">
-        <v>0.3566307167159155</v>
+        <v>-4.441450931803899</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>13.27327327327327</v>
       </c>
       <c r="B223">
-        <v>0.3668661363387029</v>
+        <v>-3.809453913157475</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>13.33333333333333</v>
       </c>
       <c r="B224">
-        <v>0.383595688546742</v>
+        <v>-2.776656685418283</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2180,7 +2180,7 @@
         <v>13.39339339339339</v>
       </c>
       <c r="B225">
-        <v>0.4050873361938459</v>
+        <v>-1.449986249071071</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2188,7 +2188,7 @@
         <v>13.45345345345345</v>
       </c>
       <c r="B226">
-        <v>0.4291203656711549</v>
+        <v>0.03347378006253329</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>13.51351351351351</v>
       </c>
       <c r="B227">
-        <v>0.4532148472336695</v>
+        <v>1.52064763868668</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>13.57357357357357</v>
       </c>
       <c r="B228">
-        <v>0.4748875312952948</v>
+        <v>2.858262821563969</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>13.63363363363363</v>
       </c>
       <c r="B229">
-        <v>0.4919077759224406</v>
+        <v>3.908646569987238</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>13.69369369369369</v>
       </c>
       <c r="B230">
-        <v>0.5025271296258059</v>
+        <v>4.563895457317665</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>13.75375375375375</v>
       </c>
       <c r="B231">
-        <v>0.505658940682146</v>
+        <v>4.756959732364907</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>13.81381381381381</v>
       </c>
       <c r="B232">
-        <v>0.5009895431905038</v>
+        <v>4.468503818195141</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>13.87387387387387</v>
       </c>
       <c r="B233">
-        <v>0.4890096441810867</v>
+        <v>3.728841056495465</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>13.93393393393393</v>
       </c>
       <c r="B234">
-        <v>0.4709627739894744</v>
+        <v>2.614749288297502</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>13.99399399399399</v>
       </c>
       <c r="B235">
-        <v>0.4487162133733883</v>
+        <v>1.241501677382413</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>14.05405405405405</v>
       </c>
       <c r="B236">
-        <v>0.4245677938105862</v>
+        <v>-0.2490601070315009</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>14.11411411411411</v>
       </c>
       <c r="B237">
-        <v>0.4010085600418693</v>
+        <v>-1.703176362696607</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>14.17417417417417</v>
       </c>
       <c r="B238">
-        <v>0.3804658084668746</v>
+        <v>-2.971030296024074</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>14.23423423423423</v>
       </c>
       <c r="B239">
-        <v>0.3650530076760862</v>
+        <v>-3.922183335091436</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -2300,7 +2300,7 @@
         <v>14.29429429429429</v>
       </c>
       <c r="B240">
-        <v>0.3563523659219984</v>
+        <v>-4.45899456930791</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -2308,7 +2308,7 @@
         <v>14.35435435435435</v>
       </c>
       <c r="B241">
-        <v>0.3552524144347381</v>
+        <v>-4.5266437591199</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -2316,7 +2316,7 @@
         <v>14.41441441441441</v>
       </c>
       <c r="B242">
-        <v>0.3618572783790886</v>
+        <v>-4.118729072415154</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -2324,7 +2324,7 @@
         <v>14.47447447447447</v>
       </c>
       <c r="B243">
-        <v>0.3754768988703316</v>
+        <v>-3.277868022684359</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2332,7 +2332,7 @@
         <v>14.53453453453453</v>
       </c>
       <c r="B244">
-        <v>0.3946991154019932</v>
+        <v>-2.091245748006467</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -2340,7 +2340,7 @@
         <v>14.59459459459459</v>
       </c>
       <c r="B245">
-        <v>0.4175360804075649</v>
+        <v>-0.6815755643619295</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2348,7 +2348,7 @@
         <v>14.65465465465465</v>
       </c>
       <c r="B246">
-        <v>0.4416298261635317</v>
+        <v>0.8055910276100744</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2356,7 +2356,7 @@
         <v>14.71471471471471</v>
       </c>
       <c r="B247">
-        <v>0.4644957264517649</v>
+        <v>2.216892617106567</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>14.77477477477477</v>
       </c>
       <c r="B248">
-        <v>0.4837787157995798</v>
+        <v>3.406972785121601</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -2372,7 +2372,7 @@
         <v>14.83483483483483</v>
       </c>
       <c r="B249">
-        <v>0.4974958448656864</v>
+        <v>4.2534507957793</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>14.89489489489489</v>
       </c>
       <c r="B250">
-        <v>0.5042401908408294</v>
+        <v>4.669506224867169</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>14.95495495495495</v>
       </c>
       <c r="B251">
-        <v>0.5033251548353525</v>
+        <v>4.612783454329557</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>15.01501501501502</v>
       </c>
       <c r="B252">
-        <v>0.4948543474158104</v>
+        <v>4.089702808182307</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>15.07507507507508</v>
       </c>
       <c r="B253">
-        <v>0.4797099503131617</v>
+        <v>3.15473960607072</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2412,7 +2412,7 @@
         <v>15.13513513513514</v>
       </c>
       <c r="B254">
-        <v>0.4594608528047484</v>
+        <v>1.904751549709556</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>15.1951951951952</v>
       </c>
       <c r="B255">
-        <v>0.4362001277087145</v>
+        <v>0.4689450780589304</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -2428,7 +2428,7 @@
         <v>15.25525525525526</v>
       </c>
       <c r="B256">
-        <v>0.4123286825596345</v>
+        <v>-1.004479943145504</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2436,7 +2436,7 @@
         <v>15.31531531531532</v>
       </c>
       <c r="B257">
-        <v>0.3903074482574828</v>
+        <v>-2.363626764305077</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -2444,7 +2444,7 @@
         <v>15.37537537537538</v>
       </c>
       <c r="B258">
-        <v>0.3724036828342279</v>
+        <v>-3.468560708270181</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -2452,7 +2452,7 @@
         <v>15.43543543543544</v>
       </c>
       <c r="B259">
-        <v>0.3604575433978728</v>
+        <v>-4.205716289171308</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>15.4954954954955</v>
       </c>
       <c r="B260">
-        <v>0.355692958698375</v>
+        <v>-4.499569218639068</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>15.55555555555556</v>
       </c>
       <c r="B261">
-        <v>0.3585922399398647</v>
+        <v>-4.320373707075429</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -2476,7 +2476,7 @@
         <v>15.61561561561562</v>
       </c>
       <c r="B262">
-        <v>0.3688472749871853</v>
+        <v>-3.687172435589717</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -2484,7 +2484,7 @@
         <v>15.67567567567568</v>
       </c>
       <c r="B263">
-        <v>0.3853922428292635</v>
+        <v>-2.665774735444586</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2492,7 +2492,7 @@
         <v>15.73573573573574</v>
       </c>
       <c r="B264">
-        <v>0.4065143776932625</v>
+        <v>-1.361917457857326</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>15.7957957957958</v>
       </c>
       <c r="B265">
-        <v>0.4300312726312941</v>
+        <v>0.08968077215956335</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>15.85585585585586</v>
       </c>
       <c r="B266">
-        <v>0.4535163688361138</v>
+        <v>1.539238860369491</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2516,7 +2516,7 @@
         <v>15.91591591591592</v>
       </c>
       <c r="B267">
-        <v>0.474549333227679</v>
+        <v>2.837367970905398</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2524,7 +2524,7 @@
         <v>15.97597597597598</v>
       </c>
       <c r="B268">
-        <v>0.4909654901788026</v>
+        <v>3.850467048451578</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>16.03603603603604</v>
       </c>
       <c r="B269">
-        <v>0.5010786021199842</v>
+        <v>4.474472545944928</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>16.0960960960961</v>
       </c>
       <c r="B270">
-        <v>0.5038540716602706</v>
+        <v>4.645547312034346</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>16.15615615615616</v>
       </c>
       <c r="B271">
-        <v>0.4990147752741801</v>
+        <v>4.346610761881807</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>16.21621621621622</v>
       </c>
       <c r="B272">
-        <v>0.4870687032057744</v>
+        <v>3.60904238586703</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>16.27627627627628</v>
       </c>
       <c r="B273">
-        <v>0.4692556520386734</v>
+        <v>2.509388897715103</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>16.33633633633634</v>
       </c>
       <c r="B274">
-        <v>0.4474185621510074</v>
+        <v>1.161420454201095</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>16.3963963963964</v>
       </c>
       <c r="B275">
-        <v>0.4238128515699151</v>
+        <v>-0.2956397169247043</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>16.45645645645646</v>
       </c>
       <c r="B276">
-        <v>0.4008734716015244</v>
+        <v>-1.711494577639192</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>16.51651651651652</v>
       </c>
       <c r="B277">
-        <v>0.3809637428334224</v>
+        <v>-2.940276333668637</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2604,7 +2604,7 @@
         <v>16.57657657657658</v>
       </c>
       <c r="B278">
-        <v>0.3661318785856076</v>
+        <v>-3.855574173059092</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -2612,7 +2612,7 @@
         <v>16.63663663663664</v>
       </c>
       <c r="B279">
-        <v>0.357900279138145</v>
+        <v>-4.363438509589542</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2620,7 +2620,7 @@
         <v>16.6966966966967</v>
       </c>
       <c r="B280">
-        <v>0.3571092722314793</v>
+        <v>-4.412023973757122</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -2628,7 +2628,7 @@
         <v>16.75675675675676</v>
       </c>
       <c r="B281">
-        <v>0.3638313377695855</v>
+        <v>-3.99688142994064</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -2636,7 +2636,7 @@
         <v>16.81681681681682</v>
       </c>
       <c r="B282">
-        <v>0.377364571073112</v>
+        <v>-3.161358911913162</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -2644,7 +2644,7 @@
         <v>16.87687687687688</v>
       </c>
       <c r="B283">
-        <v>0.3963059620748974</v>
+        <v>-1.992076099565354</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -2652,7 +2652,7 @@
         <v>16.93693693693694</v>
       </c>
       <c r="B284">
-        <v>0.4186968413254283</v>
+        <v>-0.6099447230499531</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2660,7 +2660,7 @@
         <v>16.996996996997</v>
       </c>
       <c r="B285">
-        <v>0.4422254154660071</v>
+        <v>0.8423342571618589</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2668,7 +2668,7 @@
         <v>17.05705705705706</v>
       </c>
       <c r="B286">
-        <v>0.4644654495131957</v>
+        <v>2.215003873782337</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -2676,7 +2676,7 @@
         <v>17.11711711711712</v>
       </c>
       <c r="B287">
-        <v>0.4831264534590072</v>
+        <v>3.36669366499088</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -2684,7 +2684,7 @@
         <v>17.17717717717718</v>
       </c>
       <c r="B288">
-        <v>0.4962895750012097</v>
+        <v>4.178979109825138</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -2692,7 +2692,7 @@
         <v>17.23723723723724</v>
       </c>
       <c r="B289">
-        <v>0.5026049046907312</v>
+        <v>4.568558565732522</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -2700,7 +2700,7 @@
         <v>17.2972972972973</v>
       </c>
       <c r="B290">
-        <v>0.5014299061353975</v>
+        <v>4.495795649302498</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>17.35735735735736</v>
       </c>
       <c r="B291">
-        <v>0.4928947761966714</v>
+        <v>3.968751099667461</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>17.41741741741742</v>
       </c>
       <c r="B292">
-        <v>0.477888087952524</v>
+        <v>3.042294081931261</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -2724,7 +2724,7 @@
         <v>17.47747747747748</v>
       </c>
       <c r="B293">
-        <v>0.4579642929270388</v>
+        <v>1.8123904986626</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>17.53753753753754</v>
       </c>
       <c r="B294">
-        <v>0.4351827103480655</v>
+        <v>0.4061628160125012</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>17.5975975975976</v>
       </c>
       <c r="B295">
-        <v>0.4118946804355622</v>
+        <v>-1.031249024091355</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>17.65765765765766</v>
       </c>
       <c r="B296">
-        <v>0.3905008806686982</v>
+        <v>-2.351667605513329</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>17.71771771771772</v>
       </c>
       <c r="B297">
-        <v>0.373203852248967</v>
+        <v>-3.419152878819502</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>17.77777777777778</v>
       </c>
       <c r="B298">
-        <v>0.3617812471780198</v>
+        <v>-4.123997259651741</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>17.83783783783784</v>
       </c>
       <c r="B299">
-        <v>0.357403139906229</v>
+        <v>-4.39400020613357</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>17.8978978978979</v>
       </c>
       <c r="B300">
-        <v>0.3605121778520196</v>
+        <v>-4.201863624213372</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>17.95795795795796</v>
       </c>
       <c r="B301">
-        <v>0.3707788461111484</v>
+        <v>-3.567950644841246</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>18.01801801801802</v>
       </c>
       <c r="B302">
-        <v>0.387136365498094</v>
+        <v>-2.558129087718839</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2804,7 +2804,7 @@
         <v>18.07807807807808</v>
       </c>
       <c r="B303">
-        <v>0.4078915305670035</v>
+        <v>-1.276927836718357</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>18.13813813813814</v>
       </c>
       <c r="B304">
-        <v>0.4308999723806297</v>
+        <v>0.143282874387885</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>18.1981981981982</v>
       </c>
       <c r="B305">
-        <v>0.4537877051798285</v>
+        <v>1.555967355778963</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>18.25825825825826</v>
       </c>
       <c r="B306">
-        <v>0.4741960681351425</v>
+        <v>2.815543628140852</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>18.31831831831832</v>
       </c>
       <c r="B307">
-        <v>0.490024790079747</v>
+        <v>3.792385928354284</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>18.37837837837838</v>
       </c>
       <c r="B308">
-        <v>0.4996481292769289</v>
+        <v>4.386164539301271</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2852,7 +2852,7 @@
         <v>18.43843843843844</v>
       </c>
       <c r="B309">
-        <v>0.5020818455957828</v>
+        <v>4.536150162580822</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2860,7 +2860,7 @@
         <v>18.4984984984985</v>
       </c>
       <c r="B310">
-        <v>0.497083856703383</v>
+        <v>4.227424554923633</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -2868,7 +2868,7 @@
         <v>18.55855855855856</v>
       </c>
       <c r="B311">
-        <v>0.4851782852377914</v>
+        <v>3.492362335093202</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>18.61861861861862</v>
       </c>
       <c r="B312">
-        <v>0.4676005117515273</v>
+        <v>2.407236992480027</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -2884,7 +2884,7 @@
         <v>18.67867867867868</v>
       </c>
       <c r="B313">
-        <v>0.4461689922509932</v>
+        <v>1.084306806476394</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -2892,7 +2892,7 @@
         <v>18.73873873873874</v>
       </c>
       <c r="B314">
-        <v>0.4230971397933106</v>
+        <v>-0.3397982065547187</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2900,7 +2900,7 @@
         <v>18.7987987987988</v>
       </c>
       <c r="B315">
-        <v>0.4007647304339839</v>
+        <v>-1.718186983922619</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>18.85885885885886</v>
       </c>
       <c r="B316">
-        <v>0.3814724415887359</v>
+        <v>-2.908858463542981</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>18.91891891891892</v>
       </c>
       <c r="B317">
-        <v>0.3672048405580292</v>
+        <v>-3.789330257593276</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>18.97897897897898</v>
       </c>
       <c r="B318">
-        <v>0.3594262393258486</v>
+        <v>-4.269237957956025</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>19.03903903903904</v>
       </c>
       <c r="B319">
-        <v>0.3589304148808477</v>
+        <v>-4.29960905618319</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -2940,7 +2940,7 @@
         <v>19.0990990990991</v>
       </c>
       <c r="B320">
-        <v>0.3657596174159617</v>
+        <v>-3.877859749428766</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2948,7 +2948,7 @@
         <v>19.15915915915916</v>
       </c>
       <c r="B321">
-        <v>0.379201129220641</v>
+        <v>-3.048004859212632</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>19.21921921921922</v>
       </c>
       <c r="B322">
-        <v>0.3978616346727692</v>
+        <v>-1.896065045436327</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2964,7 +2964,7 @@
         <v>19.27927927927928</v>
       </c>
       <c r="B323">
-        <v>0.419811642216579</v>
+        <v>-0.5411504835735448</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>19.33933933933934</v>
       </c>
       <c r="B324">
-        <v>0.4427849890902719</v>
+        <v>0.876854826004018</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -2980,7 +2980,7 @@
         <v>19.3993993993994</v>
       </c>
       <c r="B325">
-        <v>0.4644128009336481</v>
+        <v>2.211734732059654</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>19.45945945945946</v>
       </c>
       <c r="B326">
-        <v>0.4824677525547183</v>
+        <v>3.326017649049568</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>19.51951951951952</v>
       </c>
       <c r="B327">
-        <v>0.4950934438474723</v>
+        <v>4.105133739620947</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3004,7 +3004,7 @@
         <v>19.57957957957958</v>
       </c>
       <c r="B328">
-        <v>0.5009952694879627</v>
+        <v>4.469194642546721</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -3012,7 +3012,7 @@
         <v>19.63963963963964</v>
       </c>
       <c r="B329">
-        <v>0.4995731581860558</v>
+        <v>4.381184617373502</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>19.6996996996997</v>
       </c>
       <c r="B330">
-        <v>0.4909825720338208</v>
+        <v>3.85072328776387</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>19.75975975975976</v>
       </c>
       <c r="B331">
-        <v>0.4761175665360589</v>
+        <v>2.933017576598142</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3036,7 +3036,7 @@
         <v>19.81981981981982</v>
       </c>
       <c r="B332">
-        <v>0.4565177518599599</v>
+        <v>1.723116691996543</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3044,7 +3044,7 @@
         <v>19.87987987987988</v>
       </c>
       <c r="B333">
-        <v>0.434208836337317</v>
+        <v>0.3460679521828394</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -3052,7 +3052,7 @@
         <v>19.93993993993994</v>
       </c>
       <c r="B334">
-        <v>0.4114932664957208</v>
+        <v>-1.056007030122044</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3060,7 +3060,7 @@
         <v>20</v>
       </c>
       <c r="B335">
-        <v>0.390712600875199</v>
+        <v>-2.338580134480438</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>20.06006006006006</v>
       </c>
       <c r="B336">
-        <v>0.3740061417082983</v>
+        <v>-3.369614710890986</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>20.12012012012012</v>
       </c>
       <c r="B337">
-        <v>0.3630907044061855</v>
+        <v>-4.043158085433561</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>20.18018018018018</v>
       </c>
       <c r="B338">
-        <v>0.3590841961011134</v>
+        <v>-4.290229337403646</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>20.24024024024024</v>
       </c>
       <c r="B339">
-        <v>0.3623911319902767</v>
+        <v>-4.085883541251415</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>20.3003003003003</v>
       </c>
       <c r="B340">
-        <v>0.3726618128937997</v>
+        <v>-3.451729079284187</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>20.36036036036036</v>
       </c>
       <c r="B341">
-        <v>0.3888292816767449</v>
+        <v>-2.453644116182055</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>20.42042042042042</v>
       </c>
       <c r="B342">
-        <v>0.4092201552994834</v>
+        <v>-1.194933408820186</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3124,7 +3124,7 @@
         <v>20.48048048048048</v>
       </c>
       <c r="B343">
-        <v>0.431727820388611</v>
+        <v>0.1943637495651016</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -3132,7 +3132,7 @@
         <v>20.54054054054054</v>
       </c>
       <c r="B344">
-        <v>0.4540300670308424</v>
+        <v>1.570907851816086</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3140,7 +3140,7 @@
         <v>20.6006006006006</v>
       </c>
       <c r="B345">
-        <v>0.4738286774746983</v>
+        <v>2.792847893765889</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3148,7 +3148,7 @@
         <v>20.66066066066066</v>
       </c>
       <c r="B346">
-        <v>0.489086251074042</v>
+        <v>3.734438716156918</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -3156,7 +3156,7 @@
         <v>20.72072072072072</v>
       </c>
       <c r="B347">
-        <v>0.4982358616762152</v>
+        <v>4.298980717976354</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3164,7 +3164,7 @@
         <v>20.78078078078078</v>
       </c>
       <c r="B348">
-        <v>0.5003419731966128</v>
+        <v>4.42875041413282</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>20.84084084084084</v>
       </c>
       <c r="B349">
-        <v>0.4951960886633049</v>
+        <v>4.110902051646154</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>20.9009009009009</v>
       </c>
       <c r="B350">
-        <v>0.4833373544569964</v>
+        <v>3.378736959998573</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>20.96096096096096</v>
       </c>
       <c r="B351">
-        <v>0.4659960874635849</v>
+        <v>2.308215445269023</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>21.02102102102102</v>
       </c>
       <c r="B352">
-        <v>0.4449661388831271</v>
+        <v>1.010076492765763</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>21.08108108108108</v>
       </c>
       <c r="B353">
-        <v>0.4224193353403828</v>
+        <v>-0.3816172421392373</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>21.14114114114114</v>
       </c>
       <c r="B354">
-        <v>0.4006811913607947</v>
+        <v>-1.723324259156578</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -3220,7 +3220,7 @@
         <v>21.2012012012012</v>
       </c>
       <c r="B355">
-        <v>0.3819910553220354</v>
+        <v>-2.876829103973621</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3228,7 +3228,7 @@
         <v>21.26126126126126</v>
       </c>
       <c r="B356">
-        <v>0.368271427131044</v>
+        <v>-3.723480367696855</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>21.32132132132132</v>
       </c>
       <c r="B357">
-        <v>0.3609302105795072</v>
+        <v>-4.17639511684995</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>21.38138138138138</v>
       </c>
       <c r="B358">
-        <v>0.3607162402111975</v>
+        <v>-4.189374437590525</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>21.44144144144144</v>
       </c>
       <c r="B359">
-        <v>0.3676429073533385</v>
+        <v>-3.761615255410881</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>21.5015015015015</v>
       </c>
       <c r="B360">
-        <v>0.3809876736572874</v>
+        <v>-2.937737938662044</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>21.56156156156156</v>
       </c>
       <c r="B361">
-        <v>0.3993674300707801</v>
+        <v>-1.803132532955346</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>21.62162162162162</v>
       </c>
       <c r="B362">
-        <v>0.4208818425923555</v>
+        <v>-0.4751089314804315</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>21.68168168168168</v>
       </c>
       <c r="B363">
-        <v>0.4433098289966155</v>
+        <v>0.9092318574692262</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>21.74174174174174</v>
       </c>
       <c r="B364">
-        <v>0.4643388530978923</v>
+        <v>2.207151375530373</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>21.8018018018018</v>
       </c>
       <c r="B365">
-        <v>0.4818033656307542</v>
+        <v>3.284991175997563</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>21.86186186186186</v>
       </c>
       <c r="B366">
-        <v>0.4939078069393157</v>
+        <v>4.031936616999175</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>21.92192192192192</v>
       </c>
       <c r="B367">
-        <v>0.4994112075991917</v>
+        <v>4.371409649760916</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>21.98198198198198</v>
       </c>
       <c r="B368">
-        <v>0.497754408713055</v>
+        <v>4.268919343360882</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>22.04204204204204</v>
       </c>
       <c r="B369">
-        <v>0.4891168602923707</v>
+        <v>3.735565375926283</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>22.1021021021021</v>
       </c>
       <c r="B370">
-        <v>0.4743972296605128</v>
+        <v>2.826838704966406</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>22.16216216216216</v>
       </c>
       <c r="B371">
-        <v>0.4551199109530791</v>
+        <v>1.636848734117728</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>22.22222222222222</v>
       </c>
       <c r="B372">
-        <v>0.4332771608759923</v>
+        <v>0.2885774812734947</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -3364,7 +3364,7 @@
         <v>22.28228228228228</v>
       </c>
       <c r="B373">
-        <v>0.4111232084163672</v>
+        <v>-1.078830019763345</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3372,7 +3372,7 @@
         <v>22.34234234234234</v>
       </c>
       <c r="B374">
-        <v>0.390941615896472</v>
+        <v>-2.324425632818111</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -3380,7 +3380,7 @@
         <v>22.4024024024024</v>
       </c>
       <c r="B375">
-        <v>0.3748098996205812</v>
+        <v>-3.319986411461161</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>22.46246246246246</v>
       </c>
       <c r="B376">
-        <v>0.3643856716177459</v>
+        <v>-3.963213780739174</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3396,7 +3396,7 @@
         <v>22.52252252252252</v>
       </c>
       <c r="B377">
-        <v>0.3607363165409382</v>
+        <v>-4.188244917165475</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3404,7 +3404,7 @@
         <v>22.58258258258258</v>
       </c>
       <c r="B378">
-        <v>0.3642297043043704</v>
+        <v>-3.972396291169474</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3412,7 +3412,7 @@
         <v>22.64264264264264</v>
       </c>
       <c r="B379">
-        <v>0.3744971274383478</v>
+        <v>-3.338448961542777</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>22.7027027027027</v>
       </c>
       <c r="B380">
-        <v>0.3904721950727575</v>
+        <v>-2.352245516952564</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>22.76276276276276</v>
       </c>
       <c r="B381">
-        <v>0.4105015828428674</v>
+        <v>-1.115852020392438</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>22.82282282282282</v>
       </c>
       <c r="B382">
-        <v>0.4325161375296093</v>
+        <v>0.2430049250521644</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>22.88288288288288</v>
       </c>
       <c r="B383">
-        <v>0.4542446290687949</v>
+        <v>1.584132847991698</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>22.94294294294294</v>
       </c>
       <c r="B384">
-        <v>0.4734480688465278</v>
+        <v>2.76933677861857</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>23.003003003003</v>
       </c>
       <c r="B385">
-        <v>0.4881504204697596</v>
+        <v>3.67665918158904</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3468,7 +3468,7 @@
         <v>23.06306306306306</v>
       </c>
       <c r="B386">
-        <v>0.4968419303660852</v>
+        <v>4.212929157311684</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>23.12312312312312</v>
       </c>
       <c r="B387">
-        <v>0.4986341562511584</v>
+        <v>4.323329646621616</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>23.18318318318318</v>
       </c>
       <c r="B388">
-        <v>0.4933507749377597</v>
+        <v>3.997000267135917</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>23.24324324324324</v>
       </c>
       <c r="B389">
-        <v>0.4815448888782127</v>
+        <v>3.268103170695099</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>23.3033033033033</v>
       </c>
       <c r="B390">
-        <v>0.464441137142219</v>
+        <v>2.212247587687052</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>23.36336336336336</v>
       </c>
       <c r="B391">
-        <v>0.4438086682384764</v>
+        <v>0.938647184103938</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>23.42342342342342</v>
       </c>
       <c r="B392">
-        <v>0.4217781501996301</v>
+        <v>-0.4211763215203809</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>23.48348348348348</v>
       </c>
       <c r="B393">
-        <v>0.4006217448545768</v>
+        <v>-1.726974880460353</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>23.54354354354354</v>
       </c>
       <c r="B394">
-        <v>0.3825187671209664</v>
+        <v>-2.844238667503252</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>23.6036036036036</v>
       </c>
       <c r="B395">
-        <v>0.3693311978426691</v>
+        <v>-3.658051677774821</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>23.66366366366366</v>
       </c>
       <c r="B396">
-        <v>0.3624121738240473</v>
+        <v>-4.084911150184088</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>23.72372372372372</v>
       </c>
       <c r="B397">
-        <v>0.3624671519882054</v>
+        <v>-4.081295183052745</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>23.78378378378378</v>
       </c>
       <c r="B398">
-        <v>0.3694819920622908</v>
+        <v>-3.648099515625677</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>23.84384384384384</v>
       </c>
       <c r="B399">
-        <v>0.3827252882674193</v>
+        <v>-2.830491240641292</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>23.9039039039039</v>
       </c>
       <c r="B400">
-        <v>0.4008246194882639</v>
+        <v>-1.713200093294573</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>23.96396396396396</v>
       </c>
       <c r="B401">
-        <v>0.4219087697676825</v>
+        <v>-0.4117381397706124</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>24.02402402402402</v>
       </c>
       <c r="B402">
-        <v>0.4438011817344444</v>
+        <v>0.9395422891390036</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>24.08408408408408</v>
       </c>
       <c r="B403">
-        <v>0.4642446434186987</v>
+        <v>2.201317829240735</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>24.14414414414414</v>
       </c>
       <c r="B404">
-        <v>0.481134014301714</v>
+        <v>3.243658775620939</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>24.2042042042042</v>
       </c>
       <c r="B405">
-        <v>0.4927329961073685</v>
+        <v>3.959408210939332</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>24.26426426426426</v>
       </c>
       <c r="B406">
-        <v>0.4978526273462783</v>
+        <v>4.275197915253762</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>24.32432432432432</v>
       </c>
       <c r="B407">
-        <v>0.4959731524924395</v>
+        <v>4.158968630375203</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>24.38438438438438</v>
       </c>
       <c r="B408">
-        <v>0.4872967747733882</v>
+        <v>3.62322388866116</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>24.44444444444444</v>
       </c>
       <c r="B409">
-        <v>0.4727259398609795</v>
+        <v>2.723687251188643</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>24.5045045045045</v>
       </c>
       <c r="B410">
-        <v>0.453769479032159</v>
+        <v>1.553506925604736</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>24.56456456456456</v>
       </c>
       <c r="B411">
-        <v>0.4323863723355865</v>
+        <v>0.233610445627151</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>24.62462462462462</v>
       </c>
       <c r="B412">
-        <v>0.4107833093158911</v>
+        <v>-1.099791863891143</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>24.68468468468468</v>
       </c>
       <c r="B413">
-        <v>0.3911869668088719</v>
+        <v>-2.309263280106892</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>24.74474474474474</v>
       </c>
       <c r="B414">
-        <v>0.3756145035575654</v>
+        <v>-3.270306387625081</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>24.8048048048048</v>
       </c>
       <c r="B415">
-        <v>0.3656659266183592</v>
+        <v>-3.884178047187683</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>24.86486486486486</v>
       </c>
       <c r="B416">
-        <v>0.3623597016782662</v>
+        <v>-4.088034559494727</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>24.92492492492492</v>
       </c>
       <c r="B417">
-        <v>0.3660284967215808</v>
+        <v>-3.861364708691367</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>24.98498498498498</v>
       </c>
       <c r="B418">
-        <v>0.3762857306243848</v>
+        <v>-3.228052207348536</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>25.04504504504504</v>
       </c>
       <c r="B419">
-        <v>0.392066288139212</v>
+        <v>-2.253860298347537</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>25.1051051051051</v>
       </c>
       <c r="B420">
-        <v>0.4117371150666828</v>
+        <v>-1.039603312968015</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>25.16516516516516</v>
       </c>
       <c r="B421">
-        <v>0.4332662107739483</v>
+        <v>0.2892858354132178</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>25.22522522522522</v>
       </c>
       <c r="B422">
-        <v>0.4544325307478749</v>
+        <v>1.595712669571226</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>25.28528528528528</v>
       </c>
       <c r="B423">
-        <v>0.4730551169358974</v>
+        <v>2.745064262019488</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>25.34534534534534</v>
       </c>
       <c r="B424">
-        <v>0.4872178183599901</v>
+        <v>3.619079414785109</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>25.4054054054054</v>
       </c>
       <c r="B425">
-        <v>0.4954664476775816</v>
+        <v>4.128016777647434</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>25.46546546546546</v>
       </c>
       <c r="B426">
-        <v>0.4969580882470673</v>
+        <v>4.219868927967759</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>25.52552552552552</v>
       </c>
       <c r="B427">
-        <v>0.4915472222690757</v>
+        <v>3.885676399445771</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>25.58558558558558</v>
       </c>
       <c r="B428">
-        <v>0.4797998804154593</v>
+        <v>3.160398735537156</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>25.64564564564565</v>
       </c>
       <c r="B429">
-        <v>0.4629344421489328</v>
+        <v>2.119258195586555</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>25.70570570570571</v>
       </c>
       <c r="B430">
-        <v>0.4426952769746401</v>
+        <v>0.8699384322222146</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>25.76576576576577</v>
       </c>
       <c r="B431">
-        <v>0.421172330750013</v>
+        <v>-0.4585528197493743</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>25.82582582582583</v>
       </c>
       <c r="B432">
-        <v>0.4005853161532976</v>
+        <v>-1.72920517913674</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>25.88588588588589</v>
       </c>
       <c r="B433">
-        <v>0.3830547916300377</v>
+        <v>-2.811135619008166</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>25.94594594594595</v>
       </c>
       <c r="B434">
-        <v>0.3703837373309532</v>
+        <v>-3.593069813201255</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>26.00600600600601</v>
       </c>
       <c r="B435">
-        <v>0.3638721260486322</v>
+        <v>-3.994786230634568</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3868,7 +3868,7 @@
         <v>26.06606606606607</v>
       </c>
       <c r="B436">
-        <v>0.3641835593613913</v>
+        <v>-3.975346025680024</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>26.12612612612613</v>
       </c>
       <c r="B437">
-        <v>0.3712776501849637</v>
+        <v>-3.537264458532544</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3884,7 +3884,7 @@
         <v>26.18618618618619</v>
       </c>
       <c r="B438">
-        <v>0.3844150404900466</v>
+        <v>-2.726198870917597</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3892,7 +3892,7 @@
         <v>26.24624624624625</v>
       </c>
       <c r="B439">
-        <v>0.402234448800013</v>
+        <v>-1.626190822238902</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3900,7 +3900,7 @@
         <v>26.30630630630631</v>
       </c>
       <c r="B440">
-        <v>0.4228937194365825</v>
+        <v>-0.3509581333658483</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>26.36636636636637</v>
       </c>
       <c r="B441">
-        <v>0.4442602592223743</v>
+        <v>0.967860920999412</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -3916,7 +3916,7 @@
         <v>26.42642642642643</v>
       </c>
       <c r="B442">
-        <v>0.4641311752408533</v>
+        <v>2.194296015493404</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -3924,7 +3924,7 @@
         <v>26.48648648648649</v>
       </c>
       <c r="B443">
-        <v>0.4804603901873858</v>
+        <v>3.202063126480749</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -3932,7 +3932,7 @@
         <v>26.54654654654655</v>
       </c>
       <c r="B444">
-        <v>0.4915693203469368</v>
+        <v>3.887567581195968</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3940,7 +3940,7 @@
         <v>26.60660660660661</v>
       </c>
       <c r="B445">
-        <v>0.4963194237199524</v>
+        <v>4.180552944376412</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>26.66666666666667</v>
       </c>
       <c r="B446">
-        <v>0.4942288818356715</v>
+        <v>4.051301129753639</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>26.72672672672673</v>
       </c>
       <c r="B447">
-        <v>0.4855214579207015</v>
+        <v>3.513645884282362</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3964,7 +3964,7 @@
         <v>26.78678678678679</v>
       </c>
       <c r="B448">
-        <v>0.4711025785184371</v>
+        <v>2.623494162958352</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -3972,7 +3972,7 @@
         <v>26.84684684684685</v>
       </c>
       <c r="B449">
-        <v>0.4524651920173173</v>
+        <v>1.473013239631015</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -3980,7 +3980,7 @@
         <v>26.90690690690691</v>
       </c>
       <c r="B450">
-        <v>0.4315351916280636</v>
+        <v>0.1810878962397725</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -3988,7 +3988,7 @@
         <v>26.96696696696697</v>
       </c>
       <c r="B451">
-        <v>0.4104724069390226</v>
+        <v>-1.1189642960901</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -3996,7 +3996,7 @@
         <v>27.02702702702703</v>
       </c>
       <c r="B452">
-        <v>0.3914477278298417</v>
+        <v>-2.293150210423522</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -4004,7 +4004,7 @@
         <v>27.08708708708709</v>
       </c>
       <c r="B453">
-        <v>0.3764193593331259</v>
+        <v>-3.220611303459267</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -4012,7 +4012,7 @@
         <v>27.14714714714715</v>
       </c>
       <c r="B454">
-        <v>0.3669312676521692</v>
+        <v>-3.806063325132597</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4020,7 +4020,7 @@
         <v>27.20720720720721</v>
       </c>
       <c r="B455">
-        <v>0.3639545625036001</v>
+        <v>-3.989585228354939</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -4028,7 +4028,7 @@
         <v>27.26726726726727</v>
       </c>
       <c r="B456">
-        <v>0.3677881107325746</v>
+        <v>-3.752751655840062</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4036,7 +4036,7 @@
         <v>27.32732732732733</v>
       </c>
       <c r="B457">
-        <v>0.3780285519786685</v>
+        <v>-3.120481433506817</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4044,7 +4044,7 @@
         <v>27.38738738738739</v>
       </c>
       <c r="B458">
-        <v>0.3936127222434133</v>
+        <v>-2.158416770461754</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>27.44744744744745</v>
       </c>
       <c r="B459">
-        <v>0.412928025206673</v>
+        <v>-0.9661086956697411</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -4060,7 +4060,7 @@
         <v>27.50750750750751</v>
       </c>
       <c r="B460">
-        <v>0.4339792938703258</v>
+        <v>0.3332838645438043</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -4068,7 +4068,7 @@
         <v>27.56756756756757</v>
       </c>
       <c r="B461">
-        <v>0.4545948771421934</v>
+        <v>1.605715519758378</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4076,7 +4076,7 @@
         <v>27.62762762762763</v>
       </c>
       <c r="B462">
-        <v>0.4726506644341582</v>
+        <v>2.720082348620628</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4084,7 +4084,7 @@
         <v>27.68768768768769</v>
       </c>
       <c r="B463">
-        <v>0.4862889385244632</v>
+        <v>3.561729881934231</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4092,7 +4092,7 @@
         <v>27.74774774774775</v>
       </c>
       <c r="B464">
-        <v>0.4941095080138894</v>
+        <v>4.044249393039023</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -4100,7 +4100,7 @@
         <v>27.80780780780781</v>
       </c>
       <c r="B465">
-        <v>0.4953134549670857</v>
+        <v>4.118348850852224</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4108,7 +4108,7 @@
         <v>27.86786786786787</v>
       </c>
       <c r="B466">
-        <v>0.489784740699284</v>
+        <v>3.776887850645712</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4116,7 +4116,7 @@
         <v>27.92792792792793</v>
       </c>
       <c r="B467">
-        <v>0.4781013349336199</v>
+        <v>3.055562284301454</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4124,7 +4124,7 @@
         <v>27.98798798798799</v>
       </c>
       <c r="B468">
-        <v>0.4614748069965454</v>
+        <v>2.029173474070963</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -4132,7 +4132,7 @@
         <v>28.04804804804805</v>
       </c>
       <c r="B469">
-        <v>0.4416246917038286</v>
+        <v>0.8038716379428391</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -4140,7 +4140,7 @@
         <v>28.10810810810811</v>
       </c>
       <c r="B470">
-        <v>0.4206006570330126</v>
+        <v>-0.4938220340238138</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4148,7 +4148,7 @@
         <v>28.16816816816817</v>
       </c>
       <c r="B471">
-        <v>0.4005708643915901</v>
+        <v>-1.730079394293752</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4156,7 +4156,7 @@
         <v>28.22822822822823</v>
       </c>
       <c r="B472">
-        <v>0.3835983741308998</v>
+        <v>-2.777566532467354</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4164,7 +4164,7 @@
         <v>28.28828828828829</v>
       </c>
       <c r="B473">
-        <v>0.3714286544580603</v>
+        <v>-3.528558904381691</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4172,7 +4172,7 @@
         <v>28.34834834834835</v>
       </c>
       <c r="B474">
-        <v>0.3653100795647758</v>
+        <v>-3.906019585427664</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4180,7 +4180,7 @@
         <v>28.40840840840841</v>
       </c>
       <c r="B475">
-        <v>0.3658658763325572</v>
+        <v>-3.87150139942165</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -4188,7 +4188,7 @@
         <v>28.46846846846847</v>
       </c>
       <c r="B476">
-        <v>0.3730306542583592</v>
+        <v>-3.429062389765324</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4196,7 +4196,7 @@
         <v>28.52852852852853</v>
       </c>
       <c r="B477">
-        <v>0.3860579813441222</v>
+        <v>-2.624795949074521</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -4204,7 +4204,7 @@
         <v>28.58858858858859</v>
       </c>
       <c r="B478">
-        <v>0.4035981388506326</v>
+        <v>-1.542029360774056</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4212,7 +4212,7 @@
         <v>28.64864864864865</v>
       </c>
       <c r="B479">
-        <v>0.4238379562428277</v>
+        <v>-0.2926908538794483</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -4220,7 +4220,7 @@
         <v>28.70870870870871</v>
       </c>
       <c r="B480">
-        <v>0.4446882395160607</v>
+        <v>0.9942604628398548</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -4228,7 +4228,7 @@
         <v>28.76876876876877</v>
       </c>
       <c r="B481">
-        <v>0.4639994187268144</v>
+        <v>2.18614580851619</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -4236,7 +4236,7 @@
         <v>28.82882882882883</v>
       </c>
       <c r="B482">
-        <v>0.4797831558247915</v>
+        <v>3.160245112207498</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4244,7 +4244,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="B483">
-        <v>0.4904170666624052</v>
+        <v>3.816432430415102</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4252,7 +4252,7 @@
         <v>28.94894894894895</v>
       </c>
       <c r="B484">
-        <v>0.4948114790696345</v>
+        <v>4.087467462525053</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4260,7 +4260,7 @@
         <v>29.00900900900901</v>
       </c>
       <c r="B485">
-        <v>0.4925210870539693</v>
+        <v>3.945885369712879</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4268,7 +4268,7 @@
         <v>29.06906906906907</v>
       </c>
       <c r="B486">
-        <v>0.4837900610121746</v>
+        <v>3.406778966708394</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4276,7 +4276,7 @@
         <v>29.12912912912913</v>
       </c>
       <c r="B487">
-        <v>0.4695260457585816</v>
+        <v>2.526191545256411</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4284,7 +4284,7 @@
         <v>29.18918918918919</v>
       </c>
       <c r="B488">
-        <v>0.4512058125401994</v>
+        <v>1.39529129832684</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4292,7 +4292,7 @@
         <v>29.24924924924925</v>
       </c>
       <c r="B489">
-        <v>0.4307223715811457</v>
+        <v>0.1309328541941183</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -4300,7 +4300,7 @@
         <v>29.30930930930931</v>
       </c>
       <c r="B490">
-        <v>0.4101893728549314</v>
+        <v>-1.136416962154609</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -4308,7 +4308,7 @@
         <v>29.36936936936937</v>
       </c>
       <c r="B491">
-        <v>0.3917230054216861</v>
+        <v>-2.276141567661338</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4316,7 +4316,7 @@
         <v>29.42942942942943</v>
       </c>
       <c r="B492">
-        <v>0.3772239001051886</v>
+        <v>-3.170936135453169</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4324,7 +4324,7 @@
         <v>29.48948948948949</v>
       </c>
       <c r="B493">
-        <v>0.3681815125944351</v>
+        <v>-3.728880843491838</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -4332,7 +4332,7 @@
         <v>29.54954954954955</v>
       </c>
       <c r="B494">
-        <v>0.3655211199118142</v>
+        <v>-3.892883276697402</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -4340,7 +4340,7 @@
         <v>29.60960960960961</v>
       </c>
       <c r="B495">
-        <v>0.3695091469967201</v>
+        <v>-3.646520046290956</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4348,7 +4348,7 @@
         <v>29.66966966966967</v>
       </c>
       <c r="B496">
-        <v>0.3797265095597078</v>
+        <v>-3.015679965011576</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4356,7 +4356,7 @@
         <v>29.72972972972973</v>
       </c>
       <c r="B497">
-        <v>0.3951126378423183</v>
+        <v>-2.065844534330552</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4364,7 +4364,7 @@
         <v>29.78978978978979</v>
       </c>
       <c r="B498">
-        <v>0.4140755583126154</v>
+        <v>-0.8952913175612435</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4372,7 +4372,7 @@
         <v>29.84984984984985</v>
       </c>
       <c r="B499">
-        <v>0.4346566080195342</v>
+        <v>0.375074387261818</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4380,7 +4380,7 @@
         <v>29.90990990990991</v>
       </c>
       <c r="B500">
-        <v>0.4547327397757098</v>
+        <v>1.614207530925302</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4388,7 +4388,7 @@
         <v>29.96996996996997</v>
       </c>
       <c r="B501">
-        <v>0.4722355229391554</v>
+        <v>2.694441123983119</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4396,7 +4396,7 @@
         <v>30.03003003003003</v>
       </c>
       <c r="B502">
-        <v>0.4853642493075556</v>
+        <v>3.504639479472207</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4404,7 +4404,7 @@
         <v>30.09009009009009</v>
       </c>
       <c r="B503">
-        <v>0.4927711886154846</v>
+        <v>3.961631758480385</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4412,7 +4412,7 @@
         <v>30.15015015015015</v>
       </c>
       <c r="B504">
-        <v>0.4936999350626303</v>
+        <v>4.018749568112548</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4420,7 +4420,7 @@
         <v>30.21021021021021</v>
       </c>
       <c r="B505">
-        <v>0.4880626438932252</v>
+        <v>3.670592246757856</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4428,7 +4428,7 @@
         <v>30.27027027027027</v>
       </c>
       <c r="B506">
-        <v>0.4764482722880963</v>
+        <v>2.9535333106255</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4436,7 +4436,7 @@
         <v>30.33033033033033</v>
       </c>
       <c r="B507">
-        <v>0.4600610591016372</v>
+        <v>1.941921042205814</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4444,7 +4444,7 @@
         <v>30.39039039039039</v>
       </c>
       <c r="B508">
-        <v>0.4405956684839702</v>
+        <v>0.7403700197604869</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -4452,7 +4452,7 @@
         <v>30.45045045045045</v>
       </c>
       <c r="B509">
-        <v>0.4200619420351627</v>
+        <v>-0.5270572279782445</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -4460,7 +4460,7 @@
         <v>30.51051051051051</v>
       </c>
       <c r="B510">
-        <v>0.4005773817489112</v>
+        <v>-1.72965972542671</v>
       </c>
     </row>
     <row r="511" spans="1:2">
@@ -4468,7 +4468,7 @@
         <v>30.57057057057057</v>
       </c>
       <c r="B511">
-        <v>0.3841487896440783</v>
+        <v>-2.743576146407291</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -4476,7 +4476,7 @@
         <v>30.63063063063063</v>
       </c>
       <c r="B512">
-        <v>0.3724655814582137</v>
+        <v>-3.464541639342682</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -4484,7 +4484,7 @@
         <v>30.69069069069069</v>
       </c>
       <c r="B513">
-        <v>0.3667260612882471</v>
+        <v>-3.818609540658188</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4492,7 +4492,7 @@
         <v>30.75075075075075</v>
       </c>
       <c r="B514">
-        <v>0.3675145212454969</v>
+        <v>-3.769735470555799</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4500,7 +4500,7 @@
         <v>30.81081081081081</v>
       </c>
       <c r="B515">
-        <v>0.3747417704641958</v>
+        <v>-3.32344600756335</v>
       </c>
     </row>
     <row r="516" spans="1:2">
@@ -4508,7 +4508,7 @@
         <v>30.87087087087087</v>
       </c>
       <c r="B516">
-        <v>0.3876551454640117</v>
+        <v>-2.526218606313584</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4516,7 +4516,7 @@
         <v>30.93093093093093</v>
       </c>
       <c r="B517">
-        <v>0.4049168857716175</v>
+        <v>-1.460641875506759</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4524,7 +4524,7 @@
         <v>30.99099099099099</v>
       </c>
       <c r="B518">
-        <v>0.4247427143456096</v>
+        <v>-0.2368601246937823</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4532,7 +4532,7 @@
         <v>31.05105105105105</v>
       </c>
       <c r="B519">
-        <v>0.4450862675638581</v>
+        <v>1.018811580900256</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4540,7 +4540,7 @@
         <v>31.11111111111111</v>
       </c>
       <c r="B520">
-        <v>0.4638503117242335</v>
+        <v>2.176925088011182</v>
       </c>
     </row>
     <row r="521" spans="1:2">
@@ -4548,7 +4548,7 @@
         <v>31.17117117117117</v>
       </c>
       <c r="B521">
-        <v>0.4791029455580457</v>
+        <v>3.118243876426261</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4556,7 +4556,7 @@
         <v>31.23123123123123</v>
       </c>
       <c r="B522">
-        <v>0.489276500887702</v>
+        <v>3.746019154773138</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -4564,7 +4564,7 @@
         <v>31.29129129129129</v>
       </c>
       <c r="B523">
-        <v>0.4933286637700305</v>
+        <v>3.995933456279912</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4572,7 +4572,7 @@
         <v>31.35135135135135</v>
       </c>
       <c r="B524">
-        <v>0.490849256902515</v>
+        <v>3.842689782759693</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -4580,7 +4580,7 @@
         <v>31.41141141141141</v>
       </c>
       <c r="B525">
-        <v>0.4821017443360193</v>
+        <v>3.302571296336293</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4588,7 +4588,7 @@
         <v>31.47147147147147</v>
       </c>
       <c r="B526">
-        <v>0.4679952603423952</v>
+        <v>2.431712653587522</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4596,7 +4596,7 @@
         <v>31.53153153153153</v>
       </c>
       <c r="B527">
-        <v>0.449990129560429</v>
+        <v>1.320266349096928</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4604,7 +4604,7 @@
         <v>31.59159159159159</v>
       </c>
       <c r="B528">
-        <v>0.4299466963205266</v>
+        <v>0.08307027252098201</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -4612,7 +4612,7 @@
         <v>31.65165165165165</v>
       </c>
       <c r="B529">
-        <v>0.4099331116691408</v>
+        <v>-1.152217468736904</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -4620,7 +4620,7 @@
         <v>31.71171171171171</v>
       </c>
       <c r="B530">
-        <v>0.3920119374146085</v>
+        <v>-2.258290559661486</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4628,7 +4628,7 @@
         <v>31.77177177177177</v>
       </c>
       <c r="B531">
-        <v>0.3780275855003751</v>
+        <v>-3.121314226538245</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4636,7 +4636,7 @@
         <v>31.83183183183183</v>
       </c>
       <c r="B532">
-        <v>0.3694164981680059</v>
+        <v>-3.652640668106018</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4644,7 +4644,7 @@
         <v>31.89189189189189</v>
       </c>
       <c r="B533">
-        <v>0.3670596040910957</v>
+        <v>-3.797914484171717</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4652,7 +4652,7 @@
         <v>31.95195195195195</v>
       </c>
       <c r="B534">
-        <v>0.3711922049662647</v>
+        <v>-3.542632868561125</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -4660,7 +4660,7 @@
         <v>32.01201201201201</v>
       </c>
       <c r="B535">
-        <v>0.381380509855622</v>
+        <v>-2.913591841340998</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4668,7 +4668,7 @@
         <v>32.07207207207207</v>
       </c>
       <c r="B536">
-        <v>0.3965671546642545</v>
+        <v>-1.976074470704571</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4676,7 +4676,7 @@
         <v>32.13213213213213</v>
       </c>
       <c r="B537">
-        <v>0.4151809316948434</v>
+        <v>-0.8270760400780235</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -4684,7 +4684,7 @@
         <v>32.19219219219219</v>
       </c>
       <c r="B538">
-        <v>0.4352993425394606</v>
+        <v>0.4147308103599588</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4692,7 +4692,7 @@
         <v>32.25225225225226</v>
       </c>
       <c r="B539">
-        <v>0.4548471574368836</v>
+        <v>1.621252814899678</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -4700,7 +4700,7 @@
         <v>32.31231231231232</v>
       </c>
       <c r="B540">
-        <v>0.4718104738353999</v>
+        <v>2.668188808905736</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4708,7 +4708,7 @@
         <v>32.37237237237238</v>
       </c>
       <c r="B541">
-        <v>0.484444194473195</v>
+        <v>3.447835586847611</v>
       </c>
     </row>
     <row r="542" spans="1:2">
@@ -4716,7 +4716,7 @@
         <v>32.43243243243244</v>
       </c>
       <c r="B542">
-        <v>0.491451550301692</v>
+        <v>3.880167615671197</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -4724,7 +4724,7 @@
         <v>32.4924924924925</v>
       </c>
       <c r="B543">
-        <v>0.4921172006057117</v>
+        <v>3.921050826802935</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4732,7 +4732,7 @@
         <v>32.55255255255256</v>
       </c>
       <c r="B544">
-        <v>0.4863802494441968</v>
+        <v>3.566747456613905</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -4740,7 +4740,7 @@
         <v>32.61261261261262</v>
       </c>
       <c r="B545">
-        <v>0.4748397263529736</v>
+        <v>2.854252173737162</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4748,7 +4748,7 @@
         <v>32.67267267267268</v>
       </c>
       <c r="B546">
-        <v>0.4586920485326769</v>
+        <v>1.857429917463606</v>
       </c>
     </row>
     <row r="547" spans="1:2">
@@ -4756,7 +4756,7 @@
         <v>32.73273273273274</v>
       </c>
       <c r="B547">
-        <v>0.4396069923130926</v>
+        <v>0.6793585826261173</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4764,7 +4764,7 @@
         <v>32.7927927927928</v>
       </c>
       <c r="B548">
-        <v>0.4195550309811026</v>
+        <v>-0.5583296753251412</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -4772,7 +4772,7 @@
         <v>32.85285285285286</v>
       </c>
       <c r="B549">
-        <v>0.4006038926143637</v>
+        <v>-1.72800638397164</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4780,7 +4780,7 @@
         <v>32.91291291291292</v>
       </c>
       <c r="B550">
-        <v>0.3847053420517992</v>
+        <v>-2.709207418044691</v>
       </c>
     </row>
     <row r="551" spans="1:2">
@@ -4788,7 +4788,7 @@
         <v>32.97297297297298</v>
       </c>
       <c r="B551">
-        <v>0.3734941731089754</v>
+        <v>-3.401039314880971</v>
       </c>
     </row>
     <row r="552" spans="1:2">
@@ -4796,7 +4796,7 @@
         <v>33.03303303303304</v>
       </c>
       <c r="B552">
-        <v>0.3681201120441559</v>
+        <v>-3.732553564177072</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -4804,7 +4804,7 @@
         <v>33.0930930930931</v>
       </c>
       <c r="B553">
-        <v>0.3691299162963434</v>
+        <v>-3.670022167905576</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4812,7 +4812,7 @@
         <v>33.15315315315316</v>
       </c>
       <c r="B554">
-        <v>0.3764117583947258</v>
+        <v>-3.220368417217574</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4820,7 +4820,7 @@
         <v>33.21321321321322</v>
       </c>
       <c r="B555">
-        <v>0.3892075511446085</v>
+        <v>-2.430403982660723</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4828,7 +4828,7 @@
         <v>33.27327327327328</v>
       </c>
       <c r="B556">
-        <v>0.4061918613007759</v>
+        <v>-1.381956038940377</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4836,7 +4836,7 @@
         <v>33.33333333333334</v>
       </c>
       <c r="B557">
-        <v>0.4256091979800179</v>
+        <v>-0.1833916163584203</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4844,7 +4844,7 @@
         <v>33.3933933933934</v>
       </c>
       <c r="B558">
-        <v>0.4454554559502971</v>
+        <v>1.041582943766241</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4852,7 +4852,7 @@
         <v>33.45345345345346</v>
       </c>
       <c r="B559">
-        <v>0.4636847606155958</v>
+        <v>2.166689791600088</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4860,7 +4860,7 @@
         <v>33.51351351351352</v>
       </c>
       <c r="B560">
-        <v>0.4784203664064574</v>
+        <v>3.076096876338614</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4868,7 +4868,7 @@
         <v>33.57357357357358</v>
       </c>
       <c r="B561">
-        <v>0.4881478684833702</v>
+        <v>3.676342893171864</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4876,7 +4876,7 @@
         <v>33.63363363363364</v>
       </c>
       <c r="B562">
-        <v>0.4918708368651145</v>
+        <v>3.905942213148585</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4884,7 +4884,7 @@
         <v>33.6936936936937</v>
       </c>
       <c r="B563">
-        <v>0.4892128790051697</v>
+        <v>3.741682731898381</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4892,7 +4892,7 @@
         <v>33.75375375375376</v>
       </c>
       <c r="B564">
-        <v>0.4804556773527376</v>
+        <v>3.200971600028699</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4900,7 +4900,7 @@
         <v>33.81381381381382</v>
       </c>
       <c r="B565">
-        <v>0.4665091595489445</v>
+        <v>2.339991886737312</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4908,7 +4908,7 @@
         <v>33.87387387387388</v>
       </c>
       <c r="B566">
-        <v>0.4488169579816813</v>
+        <v>1.247865240914984</v>
       </c>
     </row>
     <row r="567" spans="1:2">
@@ -4916,7 +4916,7 @@
         <v>33.93393393393394</v>
       </c>
       <c r="B567">
-        <v>0.4292069806591021</v>
+        <v>0.03742699849367022</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4924,7 +4924,7 @@
         <v>33.993993993994</v>
       </c>
       <c r="B568">
-        <v>0.4097025602491442</v>
+        <v>-1.166431431149146</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4932,7 +4932,7 @@
         <v>34.05405405405406</v>
       </c>
       <c r="B569">
-        <v>0.3923136921487218</v>
+        <v>-2.239648511172775</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -4940,7 +4940,7 @@
         <v>34.11411411411412</v>
       </c>
       <c r="B570">
-        <v>0.3788299007609393</v>
+        <v>-3.071777338741009</v>
       </c>
     </row>
     <row r="571" spans="1:2">
@@ -4948,7 +4948,7 @@
         <v>34.17417417417418</v>
       </c>
       <c r="B571">
-        <v>0.3706360791830848</v>
+        <v>-3.577351748659084</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -4956,7 +4956,7 @@
         <v>34.23423423423424</v>
       </c>
       <c r="B572">
-        <v>0.3685702539337752</v>
+        <v>-3.704664093485382</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -4964,7 +4964,7 @@
         <v>34.2942942942943</v>
       </c>
       <c r="B573">
-        <v>0.3728378825287419</v>
+        <v>-3.441053208073447</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -4972,7 +4972,7 @@
         <v>34.35435435435436</v>
       </c>
       <c r="B574">
-        <v>0.382991447694692</v>
+        <v>-2.814161821969962</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -4980,7 +4980,7 @@
         <v>34.41441441441442</v>
       </c>
       <c r="B575">
-        <v>0.3979773718965194</v>
+        <v>-1.889038728461863</v>
       </c>
     </row>
     <row r="576" spans="1:2">
@@ -4988,7 +4988,7 @@
         <v>34.47447447447448</v>
       </c>
       <c r="B576">
-        <v>0.4162453353692154</v>
+        <v>-0.7613894095546516</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -4996,7 +4996,7 @@
         <v>34.53453453453454</v>
       </c>
       <c r="B577">
-        <v>0.4359086555212372</v>
+        <v>0.4523246131116978</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -5004,7 +5004,7 @@
         <v>34.5945945945946</v>
       </c>
       <c r="B578">
-        <v>0.454939136978161</v>
+        <v>1.626913512315622</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -5012,7 +5012,7 @@
         <v>34.65465465465466</v>
       </c>
       <c r="B579">
-        <v>0.4713762691543043</v>
+        <v>2.641371812522764</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5020,7 +5020,7 @@
         <v>34.71471471471472</v>
       </c>
       <c r="B580">
-        <v>0.4835291940371123</v>
+        <v>3.391344117889557</v>
       </c>
     </row>
     <row r="581" spans="1:2">
@@ -5028,7 +5028,7 @@
         <v>34.77477477477478</v>
       </c>
       <c r="B581">
-        <v>0.4901506381892212</v>
+        <v>3.799859737363067</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -5036,7 +5036,7 @@
         <v>34.83483483483484</v>
       </c>
       <c r="B582">
-        <v>0.4905649176198407</v>
+        <v>3.825232000957095</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5044,7 +5044,7 @@
         <v>34.8948948948949</v>
       </c>
       <c r="B583">
-        <v>0.4847368791627376</v>
+        <v>3.465311609671915</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5052,7 +5052,7 @@
         <v>34.95495495495496</v>
       </c>
       <c r="B584">
-        <v>0.4732747450382173</v>
+        <v>2.757660099507453</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5060,7 +5060,7 @@
         <v>35.01501501501502</v>
       </c>
       <c r="B585">
-        <v>0.4573666477541807</v>
+        <v>1.775630499923937</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5068,7 +5068,7 @@
         <v>35.07507507507508</v>
       </c>
       <c r="B586">
-        <v>0.4386574766271487</v>
+        <v>0.6207640869436589</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5076,7 +5076,7 @@
         <v>35.13513513513514</v>
       </c>
       <c r="B587">
-        <v>0.4190788006371232</v>
+        <v>-0.5877087028479983</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5084,7 +5084,7 @@
         <v>35.1951951951952</v>
       </c>
       <c r="B588">
-        <v>0.4006494527679821</v>
+        <v>-1.725177643842256</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5092,7 +5092,7 @@
         <v>35.25525525525526</v>
       </c>
       <c r="B589">
-        <v>0.3852673632415315</v>
+        <v>-2.674501576150386</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5100,7 +5100,7 @@
         <v>35.31531531531532</v>
       </c>
       <c r="B590">
-        <v>0.3745141059253588</v>
+        <v>-3.338071886303261</v>
       </c>
     </row>
     <row r="591" spans="1:2">
@@ -5108,7 +5108,7 @@
         <v>35.37537537537538</v>
       </c>
       <c r="B591">
-        <v>0.369492285894628</v>
+        <v>-3.647848307084674</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5116,7 +5116,7 @@
         <v>35.43543543543544</v>
       </c>
       <c r="B592">
-        <v>0.3707124870639335</v>
+        <v>-3.572335211819609</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -5124,7 +5124,7 @@
         <v>35.4954954954955</v>
       </c>
       <c r="B593">
-        <v>0.3780413708339495</v>
+        <v>-3.11978314456663</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5132,7 +5132,7 @@
         <v>35.55555555555556</v>
       </c>
       <c r="B594">
-        <v>0.3907162003956373</v>
+        <v>-2.337290223605835</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -5140,7 +5140,7 @@
         <v>35.61561561561562</v>
       </c>
       <c r="B595">
-        <v>0.4074242131036943</v>
+        <v>-1.305901009624765</v>
       </c>
     </row>
     <row r="596" spans="1:2">
@@ -5148,7 +5148,7 @@
         <v>35.67567567567568</v>
       </c>
       <c r="B596">
-        <v>0.4264385820122052</v>
+        <v>-0.1322128123165035</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5156,7 +5156,7 @@
         <v>35.73573573573574</v>
       </c>
       <c r="B597">
-        <v>0.4457968856274573</v>
+        <v>1.06264126751687</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5164,7 +5164,7 @@
         <v>35.7957957957958</v>
       </c>
       <c r="B598">
-        <v>0.4635036411502085</v>
+        <v>2.155493966179848</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5172,7 +5172,7 @@
         <v>35.85585585585586</v>
       </c>
       <c r="B599">
-        <v>0.4777359989112689</v>
+        <v>3.033839934985997</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -5180,7 +5180,7 @@
         <v>35.91591591591592</v>
       </c>
       <c r="B600">
-        <v>0.4870313953107759</v>
+        <v>3.607417575022187</v>
       </c>
     </row>
     <row r="601" spans="1:2">
@@ -5188,7 +5188,7 @@
         <v>35.97597597597598</v>
       </c>
       <c r="B601">
-        <v>0.4904378466901035</v>
+        <v>3.817484359951052</v>
       </c>
     </row>
     <row r="602" spans="1:2">
@@ -5196,7 +5196,7 @@
         <v>36.03603603603604</v>
       </c>
       <c r="B602">
-        <v>0.4876114402602965</v>
+        <v>3.642832535672307</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5204,7 +5204,7 @@
         <v>36.0960960960961</v>
       </c>
       <c r="B603">
-        <v>0.4788510388432313</v>
+        <v>3.10192918024735</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -5212,7 +5212,7 @@
         <v>36.15615615615616</v>
       </c>
       <c r="B604">
-        <v>0.4650666990508313</v>
+        <v>2.25096477907617</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5220,7 +5220,7 @@
         <v>36.21621621621622</v>
       </c>
       <c r="B605">
-        <v>0.4476851382676387</v>
+        <v>1.178016400611256</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5228,7 +5228,7 @@
         <v>36.27627627627628</v>
       </c>
       <c r="B606">
-        <v>0.4285020694933266</v>
+        <v>-0.006068263637340851</v>
       </c>
     </row>
     <row r="607" spans="1:2">
@@ -5236,7 +5236,7 @@
         <v>36.33633633633634</v>
       </c>
       <c r="B607">
-        <v>0.4094966869636409</v>
+        <v>-1.179122520324752</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -5244,7 +5244,7 @@
         <v>36.3963963963964</v>
       </c>
       <c r="B608">
-        <v>0.3926274676347575</v>
+        <v>-2.220264915657388</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5252,7 +5252,7 @@
         <v>36.45645645645646</v>
       </c>
       <c r="B609">
-        <v>0.3796303559135366</v>
+        <v>-3.022355704488439</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5260,7 +5260,7 @@
         <v>36.51651651651652</v>
       </c>
       <c r="B610">
-        <v>0.3718401277997231</v>
+        <v>-3.503021964196083</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -5268,7 +5268,7 @@
         <v>36.57657657657658</v>
       </c>
       <c r="B611">
-        <v>0.370053316468438</v>
+        <v>-3.61311684544987</v>
       </c>
     </row>
     <row r="612" spans="1:2">
@@ -5276,7 +5276,7 @@
         <v>36.63663663663664</v>
       </c>
       <c r="B612">
-        <v>0.3744467756670189</v>
+        <v>-3.341744268132044</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5284,7 +5284,7 @@
         <v>36.6966966966967</v>
       </c>
       <c r="B613">
-        <v>0.384560206168114</v>
+        <v>-2.717335391129487</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5292,7 +5292,7 @@
         <v>36.75675675675676</v>
       </c>
       <c r="B614">
-        <v>0.3993443683784738</v>
+        <v>-1.804670712681035</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -5300,7 +5300,7 @@
         <v>36.81681681681682</v>
       </c>
       <c r="B615">
-        <v>0.4172699325003208</v>
+        <v>-0.6981596298609904</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -5308,7 +5308,7 @@
         <v>36.87687687687688</v>
       </c>
       <c r="B616">
-        <v>0.436485674476588</v>
+        <v>0.487925387233683</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5316,7 +5316,7 @@
         <v>36.93693693693694</v>
       </c>
       <c r="B617">
-        <v>0.4550096541004732</v>
+        <v>1.631249841039293</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -5324,7 +5324,7 @@
         <v>36.996996996997</v>
       </c>
       <c r="B618">
-        <v>0.4709336324148346</v>
+        <v>2.614034784192912</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5332,7 +5332,7 @@
         <v>37.05705705705706</v>
       </c>
       <c r="B619">
-        <v>0.4826196450769446</v>
+        <v>3.335189570808323</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5340,7 +5340,7 @@
         <v>37.11711711711712</v>
       </c>
       <c r="B620">
-        <v>0.4888684823882626</v>
+        <v>3.7207099703207</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5348,7 +5348,7 @@
         <v>37.17717717717718</v>
       </c>
       <c r="B621">
-        <v>0.4890427465905154</v>
+        <v>3.731272123090875</v>
       </c>
     </row>
     <row r="622" spans="1:2">
@@ -5356,7 +5356,7 @@
         <v>37.23723723723724</v>
       </c>
       <c r="B622">
-        <v>0.483131859349122</v>
+        <v>3.366243112827727</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -5364,7 +5364,7 @@
         <v>37.2972972972973</v>
       </c>
       <c r="B623">
-        <v>0.47175239029638</v>
+        <v>2.663699180855994</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -5372,7 +5372,7 @@
         <v>37.35735735735736</v>
       </c>
       <c r="B624">
-        <v>0.4560837513672727</v>
+        <v>1.696454556251742</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5380,7 +5380,7 @@
         <v>37.41741741741742</v>
       </c>
       <c r="B625">
-        <v>0.4377459628014844</v>
+        <v>0.5645150177917361</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5388,7 +5388,7 @@
         <v>37.47747747747748</v>
       </c>
       <c r="B626">
-        <v>0.4186321586252114</v>
+        <v>-0.615261732746186</v>
       </c>
     </row>
     <row r="627" spans="1:2">
@@ -5396,7 +5396,7 @@
         <v>37.53753753753754</v>
       </c>
       <c r="B627">
-        <v>0.4007131485782668</v>
+        <v>-1.721229890963884</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -5404,7 +5404,7 @@
         <v>37.5975975975976</v>
       </c>
       <c r="B628">
-        <v>0.3858342122698661</v>
+        <v>-2.639498172657959</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5412,7 +5412,7 @@
         <v>37.65765765765766</v>
       </c>
       <c r="B629">
-        <v>0.3755250773762618</v>
+        <v>-3.275658015788252</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -5420,7 +5420,7 @@
         <v>37.71771771771772</v>
       </c>
       <c r="B630">
-        <v>0.3708426494884838</v>
+        <v>-3.564489643865995</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5428,7 +5428,7 @@
         <v>37.77777777777778</v>
       </c>
       <c r="B631">
-        <v>0.3722626620595927</v>
+        <v>-3.476648141954085</v>
       </c>
     </row>
     <row r="632" spans="1:2">
@@ -5436,7 +5436,7 @@
         <v>37.83783783783784</v>
       </c>
       <c r="B632">
-        <v>0.3796313535536557</v>
+        <v>-3.02164414857782</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5444,7 +5444,7 @@
         <v>37.8978978978979</v>
       </c>
       <c r="B633">
-        <v>0.3921820790046744</v>
+        <v>-2.246816476204484</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5452,7 +5452,7 @@
         <v>37.95795795795796</v>
       </c>
       <c r="B634">
-        <v>0.4086150650969181</v>
+        <v>-1.232407412200451</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5460,7 +5460,7 @@
         <v>38.01801801801802</v>
       </c>
       <c r="B635">
-        <v>0.4272320124891157</v>
+        <v>-0.08325297496691231</v>
       </c>
     </row>
     <row r="636" spans="1:2">
@@ -5468,7 +5468,7 @@
         <v>38.07807807807808</v>
       </c>
       <c r="B636">
-        <v>0.4461116066343027</v>
+        <v>1.08205136012927</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5476,7 +5476,7 @@
         <v>38.13813813813814</v>
       </c>
       <c r="B637">
-        <v>0.4633077992588033</v>
+        <v>2.143389818204991</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5484,7 +5484,7 @@
         <v>38.1981981981982</v>
       </c>
       <c r="B638">
-        <v>0.4770503979614565</v>
+        <v>2.991507292220565</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5492,7 +5492,7 @@
         <v>38.25825825825826</v>
       </c>
       <c r="B639">
-        <v>0.4859272883839865</v>
+        <v>3.539255966649597</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5500,7 +5500,7 @@
         <v>38.31831831831832</v>
       </c>
       <c r="B640">
-        <v>0.4890295314720147</v>
+        <v>3.730549899882726</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5508,7 +5508,7 @@
         <v>38.37837837837838</v>
       </c>
       <c r="B641">
-        <v>0.4860444272282904</v>
+        <v>3.546107492076415</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5516,7 +5516,7 @@
         <v>38.43843843843844</v>
       </c>
       <c r="B642">
-        <v>0.4772870170436245</v>
+        <v>3.005393923366621</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5524,7 +5524,7 @@
         <v>38.4984984984985</v>
       </c>
       <c r="B643">
-        <v>0.4636668527827125</v>
+        <v>2.164567992435448</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -5532,7 +5532,7 @@
         <v>38.55855855855856</v>
       </c>
       <c r="B644">
-        <v>0.4465935360580869</v>
+        <v>1.110649809168967</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5540,7 +5540,7 @@
         <v>38.61861861861862</v>
       </c>
       <c r="B645">
-        <v>0.4278308372067588</v>
+        <v>-0.04748498946591789</v>
       </c>
     </row>
     <row r="646" spans="1:2">
@@ -5548,7 +5548,7 @@
         <v>38.67867867867868</v>
       </c>
       <c r="B646">
-        <v>0.4093144909352576</v>
+        <v>-1.190352508947089</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5556,7 +5556,7 @@
         <v>38.73873873873874</v>
       </c>
       <c r="B647">
-        <v>0.3929524907331622</v>
+        <v>-2.200187485961418</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5564,7 +5564,7 @@
         <v>38.7987987987988</v>
       </c>
       <c r="B648">
-        <v>0.3804284849593934</v>
+        <v>-2.973078076592388</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5572,7 +5572,7 @@
         <v>38.85885885885886</v>
       </c>
       <c r="B649">
-        <v>0.3730285328125015</v>
+        <v>-3.429658167271391</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5580,7 +5580,7 @@
         <v>38.91891891891892</v>
       </c>
       <c r="B650">
-        <v>0.3715090463127233</v>
+        <v>-3.523257012749877</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5588,7 +5588,7 @@
         <v>38.97897897897898</v>
       </c>
       <c r="B651">
-        <v>0.3760194781364072</v>
+        <v>-3.24466938984465</v>
       </c>
     </row>
     <row r="652" spans="1:2">
@@ -5596,7 +5596,7 @@
         <v>39.03903903903904</v>
       </c>
       <c r="B652">
-        <v>0.3860876565644146</v>
+        <v>-2.623058761846591</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5604,7 +5604,7 @@
         <v>39.0990990990991</v>
       </c>
       <c r="B653">
-        <v>0.400669202799714</v>
+        <v>-1.722905072401146</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5612,7 +5612,7 @@
         <v>39.15915915915916</v>
       </c>
       <c r="B654">
-        <v>0.4182558598426651</v>
+        <v>-0.6373165351633899</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5620,7 +5620,7 @@
         <v>39.21921921921922</v>
       </c>
       <c r="B655">
-        <v>0.4370314969762617</v>
+        <v>0.5216008762976845</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5628,7 +5628,7 @@
         <v>39.27927927927928</v>
       </c>
       <c r="B656">
-        <v>0.4550596541228906</v>
+        <v>1.634320143678029</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5636,7 +5636,7 @@
         <v>39.33933933933934</v>
       </c>
       <c r="B657">
-        <v>0.4704832594448953</v>
+        <v>2.586220664198946</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5644,7 +5644,7 @@
         <v>39.3993993993994</v>
       </c>
       <c r="B658">
-        <v>0.4817159225206378</v>
+        <v>3.279395076856489</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -5652,7 +5652,7 @@
         <v>39.45945945945946</v>
       </c>
       <c r="B659">
-        <v>0.4876050986766937</v>
+        <v>3.642719276931953</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -5660,7 +5660,7 @@
         <v>39.51951951951952</v>
       </c>
       <c r="B660">
-        <v>0.4875503429558892</v>
+        <v>3.639149914481681</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5668,7 +5668,7 @@
         <v>39.57957957957958</v>
       </c>
       <c r="B661">
-        <v>0.4815645210501447</v>
+        <v>3.269500666256915</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5676,7 +5676,7 @@
         <v>39.63963963963964</v>
       </c>
       <c r="B662">
-        <v>0.4702717381193232</v>
+        <v>2.572312377540382</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5684,7 +5684,7 @@
         <v>39.6996996996997</v>
       </c>
       <c r="B663">
-        <v>0.454842275846991</v>
+        <v>1.61983520347489</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5692,7 +5692,7 @@
         <v>39.75975975975976</v>
       </c>
       <c r="B664">
-        <v>0.4368713196561228</v>
+        <v>0.5105415543811315</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -5700,7 +5700,7 @@
         <v>39.81981981981982</v>
       </c>
       <c r="B665">
-        <v>0.4182140427475795</v>
+        <v>-0.6410543243325058</v>
       </c>
     </row>
     <row r="666" spans="1:2">
@@ -5708,7 +5708,7 @@
         <v>39.87987987987988</v>
       </c>
       <c r="B666">
-        <v>0.4007940962157994</v>
+        <v>-1.716217671814642</v>
       </c>
     </row>
     <row r="667" spans="1:2">
@@ -5716,7 +5716,7 @@
         <v>39.93993993993994</v>
       </c>
       <c r="B667">
-        <v>0.3864052745463861</v>
+        <v>-2.604235133038196</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -5724,7 +5724,7 @@
         <v>40</v>
       </c>
       <c r="B668">
-        <v>0.3765268051227422</v>
+        <v>-3.21381511940046</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -5732,7 +5732,7 @@
         <v>40.06006006006006</v>
       </c>
       <c r="B669">
-        <v>0.3721712814323552</v>
+        <v>-3.482472711202708</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5740,7 +5740,7 @@
         <v>40.12012012012012</v>
       </c>
       <c r="B670">
-        <v>0.3737808722957436</v>
+        <v>-3.382934343893</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5748,7 +5748,7 @@
         <v>40.18018018018018</v>
       </c>
       <c r="B671">
-        <v>0.3811824451237457</v>
+        <v>-2.925905833046708</v>
       </c>
     </row>
     <row r="672" spans="1:2">
@@ -5756,7 +5756,7 @@
         <v>40.24024024024024</v>
       </c>
       <c r="B672">
-        <v>0.3936061566084396</v>
+        <v>-2.158922884669258</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -5764,7 +5764,7 @@
         <v>40.3003003003003</v>
       </c>
       <c r="B673">
-        <v>0.4097655177725467</v>
+        <v>-1.161407317355717</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -5772,7 +5772,7 @@
         <v>40.36036036036036</v>
       </c>
       <c r="B674">
-        <v>0.4279906071826153</v>
+        <v>-0.03644311207212297</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -5780,7 +5780,7 @@
         <v>40.42042042042042</v>
       </c>
       <c r="B675">
-        <v>0.4464006388040099</v>
+        <v>1.099876165141935</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5788,7 +5788,7 @@
         <v>40.48048048048048</v>
       </c>
       <c r="B676">
-        <v>0.4630980518509672</v>
+        <v>2.130427762909937</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5796,7 +5796,7 @@
         <v>40.54054054054054</v>
       </c>
       <c r="B677">
-        <v>0.4763640935989713</v>
+        <v>2.949131654406889</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5804,7 +5804,7 @@
         <v>40.6006006006006</v>
       </c>
       <c r="B678">
-        <v>0.4848357365998225</v>
+        <v>3.471869716352427</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5812,7 +5812,7 @@
         <v>40.66066066066066</v>
       </c>
       <c r="B679">
-        <v>0.4876457199093823</v>
+        <v>3.645128248291226</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -5820,7 +5820,7 @@
         <v>40.72072072072072</v>
       </c>
       <c r="B680">
-        <v>0.4845113265013943</v>
+        <v>3.45147590137649</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5828,7 +5828,7 @@
         <v>40.78078078078078</v>
       </c>
       <c r="B681">
-        <v>0.4757628097673214</v>
+        <v>2.911316307199267</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5836,7 +5836,7 @@
         <v>40.84084084084084</v>
       </c>
       <c r="B682">
-        <v>0.4623086128033255</v>
+        <v>2.080739307583011</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -5844,7 +5844,7 @@
         <v>40.9009009009009</v>
       </c>
       <c r="B683">
-        <v>0.4455410417854407</v>
+        <v>1.045696978047471</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5852,7 +5852,7 @@
         <v>40.96096096096096</v>
       </c>
       <c r="B684">
-        <v>0.4271921870809053</v>
+        <v>-0.08689087080096934</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5860,7 +5860,7 @@
         <v>41.02102102102102</v>
       </c>
       <c r="B685">
-        <v>0.4091550013066808</v>
+        <v>-1.20018131675024</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5868,7 +5868,7 @@
         <v>41.08108108108108</v>
       </c>
       <c r="B686">
-        <v>0.3932880163513259</v>
+        <v>-2.179462203866168</v>
       </c>
     </row>
     <row r="687" spans="1:2">
@@ -5876,7 +5876,7 @@
         <v>41.14114114114114</v>
       </c>
       <c r="B687">
-        <v>0.3812238450854442</v>
+        <v>-2.923971776939732</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5884,7 +5884,7 @@
         <v>41.2012012012012</v>
       </c>
       <c r="B688">
-        <v>0.3742011989568653</v>
+        <v>-3.357266226760429</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5892,7 +5892,7 @@
         <v>41.26126126126126</v>
       </c>
       <c r="B689">
-        <v>0.3729377051462308</v>
+        <v>-3.435068432471553</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -5900,7 +5900,7 @@
         <v>41.32132132132132</v>
       </c>
       <c r="B690">
-        <v>0.377556581158258</v>
+        <v>-3.14979207102767</v>
       </c>
     </row>
     <row r="691" spans="1:2">
@@ -5908,7 +5908,7 @@
         <v>41.38138138138138</v>
       </c>
       <c r="B691">
-        <v>0.3875746583150498</v>
+        <v>-2.531278879293999</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5916,7 +5916,7 @@
         <v>41.44144144144144</v>
       </c>
       <c r="B692">
-        <v>0.4019529139029726</v>
+        <v>-1.643677688089954</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5924,7 +5924,7 @@
         <v>41.5015015015015</v>
       </c>
       <c r="B693">
-        <v>0.4192042281796487</v>
+        <v>-0.5787915628222768</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5932,7 +5932,7 @@
         <v>41.56156156156156</v>
       </c>
       <c r="B694">
-        <v>0.4375471912795599</v>
+        <v>0.5534170145927796</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -5940,7 +5940,7 @@
         <v>41.62162162162162</v>
       </c>
       <c r="B695">
-        <v>0.455090052737589</v>
+        <v>1.636180934182777</v>
       </c>
     </row>
     <row r="696" spans="1:2">
@@ -5948,7 +5948,7 @@
         <v>41.68168168168168</v>
       </c>
       <c r="B696">
-        <v>0.4700258191837769</v>
+        <v>2.557970733278238</v>
       </c>
     </row>
     <row r="697" spans="1:2">
@@ -5956,7 +5956,7 @@
         <v>41.74174174174174</v>
       </c>
       <c r="B697">
-        <v>0.4808183799136118</v>
+        <v>3.223982447679175</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5964,7 +5964,7 @@
         <v>41.8018018018018</v>
       </c>
       <c r="B698">
-        <v>0.4863604891529497</v>
+        <v>3.565887775501006</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -5972,7 +5972,7 @@
         <v>41.86186186186186</v>
       </c>
       <c r="B699">
-        <v>0.4860873575781965</v>
+        <v>3.548843814260229</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5980,7 +5980,7 @@
         <v>41.92192192192192</v>
       </c>
       <c r="B700">
-        <v>0.4800342003007361</v>
+        <v>3.175043278320548</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -5988,7 +5988,7 @@
         <v>41.98198198198198</v>
       </c>
       <c r="B701">
-        <v>0.4688318785254005</v>
+        <v>2.483443515356993</v>
       </c>
     </row>
     <row r="702" spans="1:2">
@@ -5996,7 +5996,7 @@
         <v>42.04204204204204</v>
       </c>
       <c r="B702">
-        <v>0.453641159276671</v>
+        <v>1.545706892581598</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -6004,7 +6004,7 @@
         <v>42.1021021021021</v>
       </c>
       <c r="B703">
-        <v>0.4360324429650276</v>
+        <v>0.4587755397581331</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -6012,7 +6012,7 @@
         <v>42.16216216216216</v>
       </c>
       <c r="B704">
-        <v>0.4178234203216577</v>
+        <v>-0.665150215084654</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -6020,7 +6020,7 @@
         <v>42.22222222222222</v>
       </c>
       <c r="B705">
-        <v>0.4008914408827045</v>
+        <v>-1.710193740988352</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6028,7 +6028,7 @@
         <v>42.28228228228228</v>
       </c>
       <c r="B706">
-        <v>0.386979961037151</v>
+        <v>-2.568748805462904</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6036,7 +6036,7 @@
         <v>42.34234234234234</v>
       </c>
       <c r="B707">
-        <v>0.3775190262776374</v>
+        <v>-3.152559412786555</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -6044,7 +6044,7 @@
         <v>42.4024024024024</v>
       </c>
       <c r="B708">
-        <v>0.3734782716826763</v>
+        <v>-3.401791945496752</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6052,7 +6052,7 @@
         <v>42.46246246246246</v>
       </c>
       <c r="B709">
-        <v>0.3752675508727698</v>
+        <v>-3.291167074641767</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -6060,7 +6060,7 @@
         <v>42.52252252252252</v>
       </c>
       <c r="B710">
-        <v>0.3826953767363088</v>
+        <v>-2.83252305744803</v>
       </c>
     </row>
     <row r="711" spans="1:2">
@@ -6068,7 +6068,7 @@
         <v>42.58258258258258</v>
       </c>
       <c r="B711">
-        <v>0.3949893867719266</v>
+        <v>-2.073550585477498</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6076,7 +6076,7 @@
         <v>42.64264264264264</v>
       </c>
       <c r="B712">
-        <v>0.410876648523954</v>
+        <v>-1.092834221714442</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6084,7 +6084,7 @@
         <v>42.7027027027027</v>
       </c>
       <c r="B713">
-        <v>0.4287154561279352</v>
+        <v>0.008284056482589883</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -6092,7 +6092,7 @@
         <v>42.76276276276276</v>
       </c>
       <c r="B714">
-        <v>0.4466649724593843</v>
+        <v>1.116176804582506</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6100,7 +6100,7 @@
         <v>42.82282282282282</v>
       </c>
       <c r="B715">
-        <v>0.4628751875956686</v>
+        <v>2.116656472487746</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6108,7 +6108,7 @@
         <v>42.88288288288288</v>
       </c>
       <c r="B716">
-        <v>0.4756775918038312</v>
+        <v>2.906744242879994</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6116,7 +6116,7 @@
         <v>42.94294294294294</v>
       </c>
       <c r="B717">
-        <v>0.4837569114466007</v>
+        <v>3.405269398144767</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6124,7 +6124,7 @@
         <v>43.003003003003</v>
       </c>
       <c r="B718">
-        <v>0.4862862317316988</v>
+        <v>3.56120826720176</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6132,7 +6132,7 @@
         <v>43.06306306306306</v>
       </c>
       <c r="B719">
-        <v>0.4830116250563656</v>
+        <v>3.358906087870054</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6140,7 +6140,7 @@
         <v>43.12312312312312</v>
       </c>
       <c r="B720">
-        <v>0.474277624514803</v>
+        <v>2.81964740776567</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6148,7 +6148,7 @@
         <v>43.18318318318318</v>
       </c>
       <c r="B721">
-        <v>0.4609909891513944</v>
+        <v>1.999417615321332</v>
       </c>
     </row>
     <row r="722" spans="1:2">
@@ -6156,7 +6156,7 @@
         <v>43.24324324324324</v>
       </c>
       <c r="B722">
-        <v>0.4445265702919186</v>
+        <v>0.9830909255457249</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -6164,7 +6164,7 @@
         <v>43.3033033033033</v>
       </c>
       <c r="B723">
-        <v>0.4265850507134091</v>
+        <v>-0.1243518515837182</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -6172,7 +6172,7 @@
         <v>43.36336336336336</v>
       </c>
       <c r="B724">
-        <v>0.4090172765200601</v>
+        <v>-1.20866705500047</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6180,7 +6180,7 @@
         <v>43.42342342342342</v>
       </c>
       <c r="B725">
-        <v>0.3936333266586345</v>
+        <v>-2.15813336853914</v>
       </c>
     </row>
     <row r="726" spans="1:2">
@@ -6188,7 +6188,7 @@
         <v>43.48348348348348</v>
       </c>
       <c r="B726">
-        <v>0.382016015896009</v>
+        <v>-2.875062743914656</v>
       </c>
     </row>
     <row r="727" spans="1:2">
@@ -6196,7 +6196,7 @@
         <v>43.54354354354354</v>
       </c>
       <c r="B727">
-        <v>0.3753580462365881</v>
+        <v>-3.285851069367218</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6204,7 +6204,7 @@
         <v>43.6036036036036</v>
       </c>
       <c r="B728">
-        <v>0.3743395612029658</v>
+        <v>-3.348534537424777</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -6212,7 +6212,7 @@
         <v>43.66366366366366</v>
       </c>
       <c r="B729">
-        <v>0.3790586731294974</v>
+        <v>-3.057075984127434</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6220,7 +6220,7 @@
         <v>43.72372372372372</v>
       </c>
       <c r="B730">
-        <v>0.3890220589507015</v>
+        <v>-2.441943423479772</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6228,7 +6228,7 @@
         <v>43.78378378378378</v>
       </c>
       <c r="B731">
-        <v>0.4031965206913802</v>
+        <v>-1.566925658843191</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6236,7 +6236,7 @@
         <v>43.84384384384384</v>
       </c>
       <c r="B732">
-        <v>0.4201161227601289</v>
+        <v>-0.5225177264391435</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -6244,7 +6244,7 @@
         <v>43.9039039039039</v>
       </c>
       <c r="B733">
-        <v>0.438033796954929</v>
+        <v>0.5834379654356777</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -6252,7 +6252,7 @@
         <v>43.96396396396396</v>
       </c>
       <c r="B734">
-        <v>0.4551017367502883</v>
+        <v>1.636886943553676</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6260,7 +6260,7 @@
         <v>44.02402402402402</v>
       </c>
       <c r="B735">
-        <v>0.469561954465987</v>
+        <v>2.529324661004195</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6268,7 +6268,7 @@
         <v>44.08408408408408</v>
       </c>
       <c r="B736">
-        <v>0.4799273501651536</v>
+        <v>3.1689722213821</v>
       </c>
     </row>
     <row r="737" spans="1:2">
@@ -6276,7 +6276,7 @@
         <v>44.14414414414414</v>
       </c>
       <c r="B737">
-        <v>0.4851346428680939</v>
+        <v>3.490214779257693</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6284,7 +6284,7 @@
         <v>44.2042042042042</v>
       </c>
       <c r="B738">
-        <v>0.4846534371965012</v>
+        <v>3.460332007349642</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6292,7 +6292,7 @@
         <v>44.26426426426426</v>
       </c>
       <c r="B739">
-        <v>0.4785402383509475</v>
+        <v>3.082830279568086</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -6300,7 +6300,7 @@
         <v>44.32432432432432</v>
       </c>
       <c r="B740">
-        <v>0.4674319155375609</v>
+        <v>2.397037284781501</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6308,7 +6308,7 @@
         <v>44.38438438438438</v>
       </c>
       <c r="B741">
-        <v>0.4524793610797252</v>
+        <v>1.474005391957322</v>
       </c>
     </row>
     <row r="742" spans="1:2">
@@ -6316,7 +6316,7 @@
         <v>44.44444444444444</v>
       </c>
       <c r="B742">
-        <v>0.4352282549695015</v>
+        <v>0.4091504507632807</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -6324,7 +6324,7 @@
         <v>44.5045045045045</v>
       </c>
       <c r="B743">
-        <v>0.4174592875255256</v>
+        <v>-0.6876113610522012</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6332,7 +6332,7 @@
         <v>44.56456456456456</v>
       </c>
       <c r="B744">
-        <v>0.4010043560577872</v>
+        <v>-1.703209107789763</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6340,7 +6340,7 @@
         <v>44.62462462462462</v>
       </c>
       <c r="B745">
-        <v>0.3875577074874411</v>
+        <v>-2.533074008779801</v>
       </c>
     </row>
     <row r="746" spans="1:2">
@@ -6348,7 +6348,7 @@
         <v>44.68468468468468</v>
       </c>
       <c r="B746">
-        <v>0.3785014966860563</v>
+        <v>-3.091905955583384</v>
       </c>
     </row>
     <row r="747" spans="1:2">
@@ -6356,7 +6356,7 @@
         <v>44.74474474474474</v>
       </c>
       <c r="B747">
-        <v>0.3747637209580048</v>
+        <v>-3.32244111913916</v>
       </c>
     </row>
     <row r="748" spans="1:2">
@@ -6364,7 +6364,7 @@
         <v>44.8048048048048</v>
       </c>
       <c r="B748">
-        <v>0.3767231325835712</v>
+        <v>-3.20131948702887</v>
       </c>
     </row>
     <row r="749" spans="1:2">
@@ -6372,7 +6372,7 @@
         <v>44.86486486486486</v>
       </c>
       <c r="B749">
-        <v>0.3841708720429347</v>
+        <v>-2.741451146969778</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6380,7 +6380,7 @@
         <v>44.92492492492492</v>
       </c>
       <c r="B750">
-        <v>0.3963327070749553</v>
+        <v>-1.990641702021124</v>
       </c>
     </row>
     <row r="751" spans="1:2">
@@ -6388,7 +6388,7 @@
         <v>44.98498498498498</v>
       </c>
       <c r="B751">
-        <v>0.4119495119723577</v>
+        <v>-1.026623027671774</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6396,7 +6396,7 @@
         <v>45.04504504504504</v>
       </c>
       <c r="B752">
-        <v>0.4294076221563152</v>
+        <v>0.0509941315718999</v>
       </c>
     </row>
     <row r="753" spans="1:2">
@@ -6404,7 +6404,7 @@
         <v>45.1051051051051</v>
       </c>
       <c r="B753">
-        <v>0.4469055690964222</v>
+        <v>1.131012621163838</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6412,7 +6412,7 @@
         <v>45.16516516516516</v>
       </c>
       <c r="B754">
-        <v>0.4626399676851148</v>
+        <v>2.102122923239862</v>
       </c>
     </row>
     <row r="755" spans="1:2">
@@ -6420,7 +6420,7 @@
         <v>45.22522522522522</v>
       </c>
       <c r="B755">
-        <v>0.4749913752594517</v>
+        <v>2.864374841183518</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6428,7 +6428,7 @@
         <v>45.28528528528528</v>
       </c>
       <c r="B756">
-        <v>0.4826909676920604</v>
+        <v>3.339464554214564</v>
       </c>
     </row>
     <row r="757" spans="1:2">
@@ -6436,7 +6436,7 @@
         <v>45.34534534534534</v>
       </c>
       <c r="B757">
-        <v>0.484950878239135</v>
+        <v>3.478778298625243</v>
       </c>
     </row>
     <row r="758" spans="1:2">
@@ -6444,7 +6444,7 @@
         <v>45.4054054054054</v>
       </c>
       <c r="B758">
-        <v>0.4815448105905459</v>
+        <v>3.268366420622903</v>
       </c>
     </row>
     <row r="759" spans="1:2">
@@ -6452,7 +6452,7 @@
         <v>45.46546546546546</v>
       </c>
       <c r="B759">
-        <v>0.4728306785716589</v>
+        <v>2.730338905336958</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6460,7 +6460,7 @@
         <v>45.52552552552552</v>
       </c>
       <c r="B760">
-        <v>0.4597130096958092</v>
+        <v>1.920542907232245</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6468,7 +6468,7 @@
         <v>45.58558558558558</v>
       </c>
       <c r="B761">
-        <v>0.4435490604476118</v>
+        <v>0.9227661532210989</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6476,7 +6476,7 @@
         <v>45.64564564564564</v>
       </c>
       <c r="B762">
-        <v>0.426008387443651</v>
+        <v>-0.1599321633471359</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6484,7 +6484,7 @@
         <v>45.7057057057057</v>
       </c>
       <c r="B763">
-        <v>0.4089004036095756</v>
+        <v>-1.215866070165029</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6492,7 +6492,7 @@
         <v>45.76576576576576</v>
       </c>
       <c r="B764">
-        <v>0.3939877303190706</v>
+        <v>-2.136243643901729</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6500,7 +6500,7 @@
         <v>45.82582582582582</v>
       </c>
       <c r="B765">
-        <v>0.3828045986645896</v>
+        <v>-2.826375578579027</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6508,7 +6508,7 @@
         <v>45.88588588588588</v>
       </c>
       <c r="B766">
-        <v>0.3764990092718499</v>
+        <v>-3.215416719859561</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6516,7 +6516,7 @@
         <v>45.94594594594594</v>
       </c>
       <c r="B767">
-        <v>0.3757148887827693</v>
+        <v>-3.26363838629371</v>
       </c>
     </row>
     <row r="768" spans="1:2">
@@ -6524,7 +6524,7 @@
         <v>46.006006006006</v>
       </c>
       <c r="B768">
-        <v>0.380526339347562</v>
+        <v>-2.966484993191055</v>
       </c>
     </row>
     <row r="769" spans="1:2">
@@ -6532,7 +6532,7 @@
         <v>46.06606606606606</v>
       </c>
       <c r="B769">
-        <v>0.390430694067807</v>
+        <v>-2.355000811305484</v>
       </c>
     </row>
     <row r="770" spans="1:2">
@@ -6540,7 +6540,7 @@
         <v>46.12612612612612</v>
       </c>
       <c r="B770">
-        <v>0.4044010226397446</v>
+        <v>-1.49258728933606</v>
       </c>
     </row>
     <row r="771" spans="1:2">
@@ -6548,7 +6548,7 @@
         <v>46.18618618618618</v>
       </c>
       <c r="B771">
-        <v>0.420992603732377</v>
+        <v>-0.4684295890645055</v>
       </c>
     </row>
     <row r="772" spans="1:2">
@@ -6556,7 +6556,7 @@
         <v>46.24624624624624</v>
       </c>
       <c r="B772">
-        <v>0.4384923254916011</v>
+        <v>0.6117261589284224</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6564,7 +6564,7 @@
         <v>46.3063063063063</v>
       </c>
       <c r="B773">
-        <v>0.4550955648063265</v>
+        <v>1.636491164658784</v>
       </c>
     </row>
     <row r="774" spans="1:2">
@@ -6572,7 +6572,7 @@
         <v>46.36636636636636</v>
       </c>
       <c r="B774">
-        <v>0.4690922827867878</v>
+        <v>2.500320553038438</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6580,7 +6580,7 @@
         <v>46.42642642642642</v>
       </c>
       <c r="B775">
-        <v>0.4790431462744744</v>
+        <v>3.114383707344376</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -6588,7 +6588,7 @@
         <v>46.48648648648648</v>
       </c>
       <c r="B776">
-        <v>0.4839275364376162</v>
+        <v>3.415698834115577</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6596,7 +6596,7 @@
         <v>46.54654654654654</v>
       </c>
       <c r="B777">
-        <v>0.4832482248613231</v>
+        <v>3.37359245128598</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -6604,7 +6604,7 @@
         <v>46.6066066066066</v>
       </c>
       <c r="B778">
-        <v>0.4770819818788275</v>
+        <v>2.992821335869562</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -6612,7 +6612,7 @@
         <v>46.66666666666666</v>
       </c>
       <c r="B779">
-        <v>0.4660709671528052</v>
+        <v>2.313039239075904</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6620,7 +6620,7 @@
         <v>46.72672672672672</v>
       </c>
       <c r="B780">
-        <v>0.4513558617491241</v>
+        <v>1.404667770679998</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6628,7 +6628,7 @@
         <v>46.78678678678678</v>
       </c>
       <c r="B781">
-        <v>0.4344577038958628</v>
+        <v>0.3616013682544015</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -6636,7 +6636,7 @@
         <v>46.84684684684684</v>
       </c>
       <c r="B782">
-        <v>0.4171206687537499</v>
+        <v>-0.7084979766210635</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6644,7 +6644,7 @@
         <v>46.9069069069069</v>
       </c>
       <c r="B783">
-        <v>0.4011320427571102</v>
+        <v>-1.695313081876637</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -6652,7 +6652,7 @@
         <v>46.96696696696696</v>
       </c>
       <c r="B784">
-        <v>0.3881379736634054</v>
+        <v>-2.497244079320508</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6660,7 +6660,7 @@
         <v>47.02702702702702</v>
       </c>
       <c r="B785">
-        <v>0.3794739902262703</v>
+        <v>-3.03186869456681</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6668,7 +6668,7 @@
         <v>47.08708708708708</v>
       </c>
       <c r="B786">
-        <v>0.3760277401711351</v>
+        <v>-3.244413375557256</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6676,7 +6676,7 @@
         <v>47.14714714714714</v>
       </c>
       <c r="B787">
-        <v>0.3781480535352674</v>
+        <v>-3.113364653049305</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -6684,7 +6684,7 @@
         <v>47.2072072072072</v>
       </c>
       <c r="B788">
-        <v>0.3856096470047611</v>
+        <v>-2.65264590176132</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6692,7 +6692,7 @@
         <v>47.26726726726726</v>
       </c>
       <c r="B789">
-        <v>0.3976370392057417</v>
+        <v>-1.91013933882348</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -6700,7 +6700,7 @@
         <v>47.32732732732732</v>
       </c>
       <c r="B790">
-        <v>0.4129851402939723</v>
+        <v>-0.9627100231939693</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -6708,7 +6708,7 @@
         <v>47.38738738738738</v>
       </c>
       <c r="B791">
-        <v>0.4300681414217311</v>
+        <v>0.09175106734765699</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6716,7 +6716,7 @@
         <v>47.44744744744744</v>
       </c>
       <c r="B792">
-        <v>0.4471233620561027</v>
+        <v>1.144441219753236</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6724,7 +6724,7 @@
         <v>47.5075075075075</v>
       </c>
       <c r="B793">
-        <v>0.4623931265821871</v>
+        <v>2.086872441712156</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -6732,7 +6732,7 @@
         <v>47.56756756756756</v>
       </c>
       <c r="B794">
-        <v>0.4743059040986022</v>
+        <v>2.82205184111196</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -6740,7 +6740,7 @@
         <v>47.62762762762762</v>
       </c>
       <c r="B795">
-        <v>0.4816380440509651</v>
+        <v>3.274463736127187</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -6748,7 +6748,7 @@
         <v>47.68768768768768</v>
       </c>
       <c r="B796">
-        <v>0.4836394628230786</v>
+        <v>3.397826196682573</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6756,7 +6756,7 @@
         <v>47.74774774774774</v>
       </c>
       <c r="B797">
-        <v>0.4801103718418682</v>
+        <v>3.179825333214384</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -6764,7 +6764,7 @@
         <v>47.80780780780781</v>
       </c>
       <c r="B798">
-        <v>0.4714211990953281</v>
+        <v>2.643343089781449</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -6772,7 +6772,7 @@
         <v>47.86786786786787</v>
       </c>
       <c r="B799">
-        <v>0.458473719980444</v>
+        <v>1.844056266091011</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6780,7 +6780,7 @@
         <v>47.92792792792793</v>
       </c>
       <c r="B800">
-        <v>0.4426074747696677</v>
+        <v>0.8646586223772419</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6788,7 +6788,7 @@
         <v>47.98798798798799</v>
       </c>
       <c r="B801">
-        <v>0.4254611837858174</v>
+        <v>-0.1936943602143872</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6796,7 +6796,7 @@
         <v>48.04804804804805</v>
       </c>
       <c r="B802">
-        <v>0.4088034975070451</v>
+        <v>-1.221832986775827</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -6804,7 +6804,7 @@
         <v>48.10810810810811</v>
       </c>
       <c r="B803">
-        <v>0.3943505617410791</v>
+        <v>-2.11383410493122</v>
       </c>
     </row>
     <row r="804" spans="1:2">
@@ -6812,7 +6812,7 @@
         <v>48.16816816816817</v>
       </c>
       <c r="B804">
-        <v>0.3835892156053692</v>
+        <v>-2.777933589636614</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6820,7 +6820,7 @@
         <v>48.22822822822823</v>
       </c>
       <c r="B805">
-        <v>0.3776240366674254</v>
+        <v>-3.145966340062985</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -6828,7 +6828,7 @@
         <v>48.28828828828829</v>
       </c>
       <c r="B806">
-        <v>0.3770639677811909</v>
+        <v>-3.180362692649064</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -6836,7 +6836,7 @@
         <v>48.34834834834835</v>
       </c>
       <c r="B807">
-        <v>0.3819601617502104</v>
+        <v>-2.877983169919228</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -6844,7 +6844,7 @@
         <v>48.40840840840841</v>
       </c>
       <c r="B808">
-        <v>0.39180138730487</v>
+        <v>-2.270400198020789</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -6852,7 +6852,7 @@
         <v>48.46846846846847</v>
       </c>
       <c r="B809">
-        <v>0.4055673999095149</v>
+        <v>-1.420602076547532</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6860,7 +6860,7 @@
         <v>48.52852852852853</v>
       </c>
       <c r="B810">
-        <v>0.4218347065752524</v>
+        <v>-0.4164632365778556</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6868,7 +6868,7 @@
         <v>48.58858858858859</v>
       </c>
       <c r="B811">
-        <v>0.4389237609022794</v>
+        <v>0.6383423291631123</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -6876,7 +6876,7 @@
         <v>48.64864864864865</v>
       </c>
       <c r="B812">
-        <v>0.4550723681025319</v>
+        <v>1.635044896176128</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6884,7 +6884,7 @@
         <v>48.70870870870871</v>
       </c>
       <c r="B813">
-        <v>0.4686173970497608</v>
+        <v>2.470994997273464</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6892,7 +6892,7 @@
         <v>48.76876876876877</v>
       </c>
       <c r="B814">
-        <v>0.4781660620368755</v>
+        <v>3.060235029803555</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6900,7 +6900,7 @@
         <v>48.82882882882883</v>
       </c>
       <c r="B815">
-        <v>0.4827391346334759</v>
+        <v>3.34233775521068</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -6908,7 +6908,7 @@
         <v>48.88888888888889</v>
       </c>
       <c r="B816">
-        <v>0.4818713603516797</v>
+        <v>3.288602901953553</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6916,7 +6916,7 @@
         <v>48.94894894894895</v>
       </c>
       <c r="B817">
-        <v>0.4756587831896948</v>
+        <v>2.90497646070826</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6924,7 +6924,7 @@
         <v>49.00900900900901</v>
       </c>
       <c r="B818">
-        <v>0.4647481653034199</v>
+        <v>2.231395791888156</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6932,7 +6932,7 @@
         <v>49.06906906906907</v>
       </c>
       <c r="B819">
-        <v>0.4502696625748721</v>
+        <v>1.337632381691708</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6940,7 +6940,7 @@
         <v>49.12912912912913</v>
       </c>
       <c r="B820">
-        <v>0.4337197634775339</v>
+        <v>0.3160649476021461</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -6948,7 +6948,7 @@
         <v>49.18918918918919</v>
       </c>
       <c r="B821">
-        <v>0.4168066159835915</v>
+        <v>-0.7278685736377891</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6956,7 +6956,7 @@
         <v>49.24924924924925</v>
       </c>
       <c r="B822">
-        <v>0.4012737288098251</v>
+        <v>-1.686553317960102</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6964,7 +6964,7 @@
         <v>49.30930930930931</v>
       </c>
       <c r="B823">
-        <v>0.3887202426122615</v>
+        <v>-2.461290916563343</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6972,7 +6972,7 @@
         <v>49.36936936936937</v>
       </c>
       <c r="B824">
-        <v>0.3804362981305434</v>
+        <v>-2.972460505569865</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -6980,7 +6980,7 @@
         <v>49.42942942942943</v>
       </c>
       <c r="B825">
-        <v>0.3772704498804801</v>
+        <v>-3.167701263072586</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6988,7 +6988,7 @@
         <v>49.48948948948949</v>
       </c>
       <c r="B826">
-        <v>0.3795427507875117</v>
+        <v>-3.027275586182697</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -6996,7 +6996,7 @@
         <v>49.54954954954955</v>
       </c>
       <c r="B827">
-        <v>0.387012409754772</v>
+        <v>-2.566063605425577</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -7004,7 +7004,7 @@
         <v>49.60960960960961</v>
       </c>
       <c r="B828">
-        <v>0.3989032890610967</v>
+        <v>-1.831987575347247</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7012,7 +7012,7 @@
         <v>49.66966966966967</v>
       </c>
       <c r="B829">
-        <v>0.4139845435474945</v>
+        <v>-0.9010328615978934</v>
       </c>
     </row>
     <row r="830" spans="1:2">
@@ -7020,7 +7020,7 @@
         <v>49.72972972972973</v>
       </c>
       <c r="B830">
-        <v>0.4306980239216436</v>
+        <v>0.1306172033870518</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -7028,7 +7028,7 @@
         <v>49.78978978978979</v>
       </c>
       <c r="B831">
-        <v>0.4473192571844868</v>
+        <v>1.156518508119941</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7036,7 +7036,7 @@
         <v>49.84984984984985</v>
       </c>
       <c r="B832">
-        <v>0.4621353727516918</v>
+        <v>2.070948749831782</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -7044,7 +7044,7 @@
         <v>49.90990990990991</v>
       </c>
       <c r="B833">
-        <v>0.4736216166303708</v>
+        <v>2.779802287580642</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7052,7 +7052,7 @@
         <v>49.96996996996997</v>
       </c>
       <c r="B834">
-        <v>0.4805982638328573</v>
+        <v>3.210274544803915</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -7060,7 +7060,7 @@
         <v>50.03003003003003</v>
       </c>
       <c r="B835">
-        <v>0.4823517814680214</v>
+        <v>3.318339358577702</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -7068,7 +7068,7 @@
         <v>50.09009009009009</v>
       </c>
       <c r="B836">
-        <v>0.47870779889333</v>
+        <v>3.093251342523902</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7076,7 +7076,7 @@
         <v>50.15015015015015</v>
       </c>
       <c r="B837">
-        <v>0.4700484231910138</v>
+        <v>2.558612865243004</v>
       </c>
     </row>
     <row r="838" spans="1:2">
@@ -7084,7 +7084,7 @@
         <v>50.21021021021021</v>
       </c>
       <c r="B838">
-        <v>0.4572721830639697</v>
+        <v>1.769899855971645</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -7092,7 +7092,7 @@
         <v>50.27027027027027</v>
       </c>
       <c r="B839">
-        <v>0.4417007990427907</v>
+        <v>0.8087057306334587</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -7100,7 +7100,7 @@
         <v>50.33033033033033</v>
       </c>
       <c r="B840">
-        <v>0.4249424528694781</v>
+        <v>-0.2256993534334927</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -7108,7 +7108,7 @@
         <v>50.39039039039039</v>
       </c>
       <c r="B841">
-        <v>0.4087257003604406</v>
+        <v>-1.226620749496227</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7116,7 +7116,7 @@
         <v>50.45045045045045</v>
       </c>
       <c r="B842">
-        <v>0.3947211803444134</v>
+        <v>-2.090944282914487</v>
       </c>
     </row>
     <row r="843" spans="1:2">
@@ -7124,7 +7124,7 @@
         <v>50.51051051051051</v>
       </c>
       <c r="B843">
-        <v>0.3843695091640082</v>
+        <v>-2.729758837206141</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7132,7 +7132,7 @@
         <v>50.57057057057057</v>
       </c>
       <c r="B844">
-        <v>0.3787330904004849</v>
+        <v>-3.077502266644084</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7140,7 +7140,7 @@
         <v>50.63063063063063</v>
       </c>
       <c r="B845">
-        <v>0.378387083237273</v>
+        <v>-3.098689852854896</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7148,7 +7148,7 @@
         <v>50.69069069069069</v>
       </c>
       <c r="B846">
-        <v>0.3833607186697051</v>
+        <v>-2.791534808832151</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -7156,7 +7156,7 @@
         <v>50.75075075075075</v>
       </c>
       <c r="B847">
-        <v>0.3931349503281183</v>
+        <v>-2.188091478101319</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -7164,7 +7164,7 @@
         <v>50.81081081081081</v>
       </c>
       <c r="B848">
-        <v>0.4066966135671176</v>
+        <v>-1.350910696276608</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7172,7 +7172,7 @@
         <v>50.87087087087087</v>
       </c>
       <c r="B849">
-        <v>0.4226434425264251</v>
+        <v>-0.3665562512500071</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7180,7 +7180,7 @@
         <v>50.93093093093093</v>
       </c>
       <c r="B850">
-        <v>0.4393290603168545</v>
+        <v>0.6633455508728551</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7188,7 +7188,7 @@
         <v>50.99099099099099</v>
       </c>
       <c r="B851">
-        <v>0.4550329510850616</v>
+        <v>1.632597785669344</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7196,7 +7196,7 @@
         <v>51.05105105105105</v>
       </c>
       <c r="B852">
-        <v>0.4681378662967074</v>
+        <v>2.441383108884999</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7204,7 +7204,7 @@
         <v>51.11111111111111</v>
       </c>
       <c r="B853">
-        <v>0.4772963727304584</v>
+        <v>3.006543170239673</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7212,7 +7212,7 @@
         <v>51.17117117117117</v>
       </c>
       <c r="B854">
-        <v>0.4815693909568951</v>
+        <v>3.270128662252105</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -7220,7 +7220,7 @@
         <v>51.23123123123123</v>
       </c>
       <c r="B855">
-        <v>0.4805224805750692</v>
+        <v>3.205340938267373</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7228,7 +7228,7 @@
         <v>51.29129129129129</v>
       </c>
       <c r="B856">
-        <v>0.4742700004022999</v>
+        <v>2.819256026664255</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7236,7 +7236,7 @@
         <v>51.35135135135135</v>
       </c>
       <c r="B857">
-        <v>0.463462655810385</v>
+        <v>2.152054214368988</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7244,7 +7244,7 @@
         <v>51.41141141141141</v>
       </c>
       <c r="B858">
-        <v>0.4492197853697563</v>
+        <v>1.272838844863928</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7252,7 +7252,7 @@
         <v>51.47147147147147</v>
       </c>
       <c r="B859">
-        <v>0.4330134324816755</v>
+        <v>0.272479389466307</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -7260,7 +7260,7 @@
         <v>51.53153153153153</v>
       </c>
       <c r="B860">
-        <v>0.4165162081515348</v>
+        <v>-0.7457799998964976</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7268,7 +7268,7 @@
         <v>51.59159159159159</v>
       </c>
       <c r="B861">
-        <v>0.4014286681490523</v>
+        <v>-1.676975859576115</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7276,7 +7276,7 @@
         <v>51.65165165165165</v>
       </c>
       <c r="B862">
-        <v>0.3893040199406922</v>
+        <v>-2.425245027672931</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -7284,7 +7284,7 @@
         <v>51.71171171171171</v>
       </c>
       <c r="B863">
-        <v>0.3813882283254448</v>
+        <v>-2.91369323419835</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7292,7 +7292,7 @@
         <v>51.77177177177177</v>
       </c>
       <c r="B864">
-        <v>0.3784919797602063</v>
+        <v>-3.092296767601369</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -7300,7 +7300,7 @@
         <v>51.83183183183183</v>
       </c>
       <c r="B865">
-        <v>0.3809076620069014</v>
+        <v>-2.943025262718149</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7308,7 +7308,7 @@
         <v>51.89189189189189</v>
       </c>
       <c r="B866">
-        <v>0.3883798604718683</v>
+        <v>-2.481661032784674</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7316,7 +7316,7 @@
         <v>51.95195195195195</v>
       </c>
       <c r="B867">
-        <v>0.4001323468528787</v>
+        <v>-1.75613145941646</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7324,7 +7324,7 @@
         <v>52.01201201201201</v>
       </c>
       <c r="B868">
-        <v>0.4149487100016727</v>
+        <v>-0.8415305413256104</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7332,7 +7332,7 @@
         <v>52.07207207207207</v>
       </c>
       <c r="B869">
-        <v>0.4312982540116699</v>
+        <v>0.1676532964653512</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -7340,7 +7340,7 @@
         <v>52.13213213213213</v>
       </c>
       <c r="B870">
-        <v>0.4474941334812134</v>
+        <v>1.167298736966149</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -7348,7 +7348,7 @@
         <v>52.19219219219219</v>
       </c>
       <c r="B871">
-        <v>0.4618673893757036</v>
+        <v>2.054394009062137</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -7356,7 +7356,7 @@
         <v>52.25225225225226</v>
       </c>
       <c r="B872">
-        <v>0.4729389300485174</v>
+        <v>2.737651922346827</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -7364,7 +7364,7 @@
         <v>52.31231231231232</v>
       </c>
       <c r="B873">
-        <v>0.4795717355704491</v>
+        <v>3.146903669305253</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7372,7 +7372,7 @@
         <v>52.37237237237238</v>
       </c>
       <c r="B874">
-        <v>0.4810876232353123</v>
+        <v>3.240304754451475</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7380,7 +7380,7 @@
         <v>52.43243243243244</v>
       </c>
       <c r="B875">
-        <v>0.4773365834624312</v>
+        <v>3.0086130665896</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -7388,7 +7388,7 @@
         <v>52.4924924924925</v>
       </c>
       <c r="B876">
-        <v>0.4687115979772186</v>
+        <v>2.476101754178878</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -7396,7 +7396,7 @@
         <v>52.55255255255256</v>
       </c>
       <c r="B877">
-        <v>0.4561074793550046</v>
+        <v>1.69801691206461</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -7404,7 +7404,7 @@
         <v>52.61261261261262</v>
       </c>
       <c r="B878">
-        <v>0.4408280419412812</v>
+        <v>0.7548462885891768</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7412,7 +7412,7 @@
         <v>52.67267267267268</v>
       </c>
       <c r="B879">
-        <v>0.4244512338877107</v>
+        <v>-0.2560064454460452</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7420,7 +7420,7 @@
         <v>52.73273273273274</v>
       </c>
       <c r="B880">
-        <v>0.4086661808652036</v>
+        <v>-1.230280664397703</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -7428,7 +7428,7 @@
         <v>52.7927927927928</v>
       </c>
       <c r="B881">
-        <v>0.3950989698436819</v>
+        <v>-2.067612209670867</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7436,7 +7436,7 @@
         <v>52.85285285285286</v>
       </c>
       <c r="B882">
-        <v>0.3851451413273228</v>
+        <v>-2.681872175428871</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -7444,7 +7444,7 @@
         <v>52.91291291291292</v>
       </c>
       <c r="B883">
-        <v>0.3798261452275237</v>
+        <v>-3.010026047713242</v>
       </c>
     </row>
     <row r="884" spans="1:2">
@@ -7452,7 +7452,7 @@
         <v>52.97297297297298</v>
       </c>
       <c r="B884">
-        <v>0.3796845248987315</v>
+        <v>-3.018601972901673</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7460,7 +7460,7 @@
         <v>53.03303303303304</v>
       </c>
       <c r="B885">
-        <v>0.3847285846008602</v>
+        <v>-2.707104441579709</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7468,7 +7468,7 @@
         <v>53.0930930930931</v>
       </c>
       <c r="B886">
-        <v>0.3944321828260827</v>
+        <v>-2.10802528557602</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7476,7 +7476,7 @@
         <v>53.15315315315316</v>
       </c>
       <c r="B887">
-        <v>0.4077896058053437</v>
+        <v>-1.283454989470563</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7484,7 +7484,7 @@
         <v>53.21321321321322</v>
       </c>
       <c r="B888">
-        <v>0.4234197990074903</v>
+        <v>-0.3186476854974444</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7492,7 +7492,7 @@
         <v>53.27327327327328</v>
       </c>
       <c r="B889">
-        <v>0.4397091545672006</v>
+        <v>0.6867932755319397</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -7500,7 +7500,7 @@
         <v>53.33333333333334</v>
       </c>
       <c r="B890">
-        <v>0.4549780921333756</v>
+        <v>1.629197871807482</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -7508,7 +7508,7 @@
         <v>53.3933933933934</v>
       </c>
       <c r="B891">
-        <v>0.4676542364202169</v>
+        <v>2.411518574314384</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -7516,7 +7516,7 @@
         <v>53.45345345345346</v>
       </c>
       <c r="B892">
-        <v>0.4764343357838049</v>
+        <v>2.953324008584746</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -7524,7 +7524,7 @@
         <v>53.51351351351352</v>
       </c>
       <c r="B893">
-        <v>0.4804182481924</v>
+        <v>3.199068013715225</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7532,7 +7532,7 @@
         <v>53.57357357357358</v>
       </c>
       <c r="B894">
-        <v>0.4792012199509137</v>
+        <v>3.12378398583474</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -7540,7 +7540,7 @@
         <v>53.63363363363364</v>
       </c>
       <c r="B895">
-        <v>0.4729149976223628</v>
+        <v>2.735620776118875</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7548,7 +7548,7 @@
         <v>53.6936936936937</v>
       </c>
       <c r="B896">
-        <v>0.4622135983293827</v>
+        <v>2.074962631832141</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7556,7 +7556,7 @@
         <v>53.75375375375376</v>
       </c>
       <c r="B897">
-        <v>0.448205272193653</v>
+        <v>1.210228029973983</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7564,7 +7564,7 @@
         <v>53.81381381381382</v>
       </c>
       <c r="B898">
-        <v>0.4323377342404599</v>
+        <v>0.2307844108586989</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -7572,7 +7572,7 @@
         <v>53.87387387387388</v>
       </c>
       <c r="B899">
-        <v>0.4162485505401098</v>
+        <v>-0.7622874769903966</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -7580,7 +7580,7 @@
         <v>53.93393393393394</v>
       </c>
       <c r="B900">
-        <v>0.4015961401175809</v>
+        <v>-1.666625181941944</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -7588,7 +7588,7 @@
         <v>53.993993993994</v>
       </c>
       <c r="B901">
-        <v>0.3898888331111173</v>
+        <v>-2.389135570936363</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7596,7 +7596,7 @@
         <v>54.05405405405406</v>
       </c>
       <c r="B902">
-        <v>0.3823296047911968</v>
+        <v>-2.855577735371451</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7604,7 +7604,7 @@
         <v>54.11411411411412</v>
       </c>
       <c r="B903">
-        <v>0.3796924680886208</v>
+        <v>-3.018191344228411</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -7612,7 +7612,7 @@
         <v>54.17417417417418</v>
       </c>
       <c r="B904">
-        <v>0.3822432251369686</v>
+        <v>-2.860586642117407</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7620,7 +7620,7 @@
         <v>54.23423423423424</v>
       </c>
       <c r="B905">
-        <v>0.3897126912662653</v>
+        <v>-2.39939545694661</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7628,7 +7628,7 @@
         <v>54.2942942942943</v>
       </c>
       <c r="B906">
-        <v>0.4013250872203253</v>
+        <v>-1.682517000275935</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7636,7 +7636,7 @@
         <v>54.35435435435436</v>
       </c>
       <c r="B907">
-        <v>0.4158786064627486</v>
+        <v>-0.7841433857269184</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -7644,7 +7644,7 @@
         <v>54.41441441441442</v>
       </c>
       <c r="B908">
-        <v>0.4318697909140928</v>
+        <v>0.2029185519481814</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -7652,7 +7652,7 @@
         <v>54.47447447447448</v>
       </c>
       <c r="B909">
-        <v>0.4476488437364795</v>
+        <v>1.176834539247164</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -7660,7 +7660,7 @@
         <v>54.53453453453454</v>
       </c>
       <c r="B910">
-        <v>0.4615898350531739</v>
+        <v>2.037248863586418</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -7668,7 +7668,7 @@
         <v>54.5945945945946</v>
       </c>
       <c r="B911">
-        <v>0.4722582411215794</v>
+        <v>2.695625226604447</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7676,7 +7676,7 @@
         <v>54.65465465465466</v>
       </c>
       <c r="B912">
-        <v>0.4785585536290885</v>
+        <v>3.08435692444614</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -7684,7 +7684,7 @@
         <v>54.71471471471472</v>
       </c>
       <c r="B913">
-        <v>0.4798467707292833</v>
+        <v>3.163708956147502</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7692,7 +7692,7 @@
         <v>54.77477477477478</v>
       </c>
       <c r="B914">
-        <v>0.4759962191760873</v>
+        <v>2.925879241570527</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7700,7 +7700,7 @@
         <v>54.83483483483484</v>
       </c>
       <c r="B915">
-        <v>0.4674099806413473</v>
+        <v>2.395763900784649</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7708,7 +7708,7 @@
         <v>54.8948948948949</v>
       </c>
       <c r="B916">
-        <v>0.4549787064429307</v>
+        <v>1.628351730227232</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7716,7 +7716,7 @@
         <v>54.95495495495496</v>
       </c>
       <c r="B917">
-        <v>0.4399882346527886</v>
+        <v>0.7030204965944397</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7724,7 +7724,7 @@
         <v>55.01501501501502</v>
       </c>
       <c r="B918">
-        <v>0.4239865915528188</v>
+        <v>-0.2846733634869936</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7732,7 +7732,7 @@
         <v>55.07507507507508</v>
       </c>
       <c r="B919">
-        <v>0.408624133608214</v>
+        <v>-1.23286243945523</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7740,7 +7740,7 @@
         <v>55.13513513513514</v>
       </c>
       <c r="B920">
-        <v>0.3954833375483257</v>
+        <v>-2.043874460760661</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -7748,7 +7748,7 @@
         <v>55.1951951951952</v>
       </c>
       <c r="B921">
-        <v>0.3859157929514607</v>
+        <v>-2.634293293934355</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7756,7 +7756,7 @@
         <v>55.25525525525526</v>
       </c>
       <c r="B922">
-        <v>0.3809031881099441</v>
+        <v>-2.943538478276015</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7764,7 +7764,7 @@
         <v>55.31531531531532</v>
       </c>
       <c r="B923">
-        <v>0.3809565868040247</v>
+        <v>-2.940080894197063</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -7772,7 +7772,7 @@
         <v>55.37537537537538</v>
       </c>
       <c r="B924">
-        <v>0.3860643299824788</v>
+        <v>-2.624656850425369</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -7780,7 +7780,7 @@
         <v>55.43543543543544</v>
       </c>
       <c r="B925">
-        <v>0.3956938725126899</v>
+        <v>-2.030152993829187</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -7788,7 +7788,7 @@
         <v>55.4954954954955</v>
       </c>
       <c r="B926">
-        <v>0.4088473001675009</v>
+        <v>-1.21817794838263</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7796,7 +7796,7 @@
         <v>55.55555555555556</v>
       </c>
       <c r="B927">
-        <v>0.4241647400458092</v>
+        <v>-0.2726780358389442</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7804,7 +7804,7 @@
         <v>55.61561561561562</v>
       </c>
       <c r="B928">
-        <v>0.4400649487629707</v>
+        <v>0.7087413669002938</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7812,7 +7812,7 @@
         <v>55.67567567567568</v>
       </c>
       <c r="B929">
-        <v>0.4549085442305043</v>
+        <v>1.624891625738574</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7820,7 +7820,7 @@
         <v>55.73573573573574</v>
       </c>
       <c r="B930">
-        <v>0.4671670308591918</v>
+        <v>2.381433694198961</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7828,7 +7828,7 @@
         <v>55.7957957957958</v>
       </c>
       <c r="B931">
-        <v>0.4755801914250431</v>
+        <v>2.900592363283267</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7836,7 +7836,7 @@
         <v>55.85585585585586</v>
       </c>
       <c r="B932">
-        <v>0.4792856389435958</v>
+        <v>3.129151639907431</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7844,7 +7844,7 @@
         <v>55.91591591591592</v>
       </c>
       <c r="B933">
-        <v>0.4779072107779601</v>
+        <v>3.043909339626801</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7852,7 +7852,7 @@
         <v>55.97597597597598</v>
       </c>
       <c r="B934">
-        <v>0.4715931451039282</v>
+        <v>2.654031831207425</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7860,7 +7860,7 @@
         <v>56.03603603603604</v>
       </c>
       <c r="B935">
-        <v>0.46100016628973</v>
+        <v>2.000070019978025</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -7868,7 +7868,7 @@
         <v>56.0960960960961</v>
       </c>
       <c r="B936">
-        <v>0.4472251850766096</v>
+        <v>1.149742039606058</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7876,7 +7876,7 @@
         <v>56.15615615615616</v>
       </c>
       <c r="B937">
-        <v>0.431691716187123</v>
+        <v>0.1909212165011184</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7884,7 +7884,7 @@
         <v>56.21621621621622</v>
       </c>
       <c r="B938">
-        <v>0.4160027741749094</v>
+        <v>-0.7774446375337954</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -7892,7 +7892,7 @@
         <v>56.27627627627628</v>
       </c>
       <c r="B939">
-        <v>0.4017754487882097</v>
+        <v>-1.655544233908914</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7900,7 +7900,7 @@
         <v>56.33633633633634</v>
       </c>
       <c r="B940">
-        <v>0.3904742307554531</v>
+        <v>-2.352990398119879</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7908,7 +7908,7 @@
         <v>56.3963963963964</v>
       </c>
       <c r="B941">
-        <v>0.3832602669396196</v>
+        <v>-2.798123911714523</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7916,7 +7916,7 @@
         <v>56.45645645645646</v>
       </c>
       <c r="B942">
-        <v>0.3808720612543162</v>
+        <v>-2.945375947685007</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -7924,7 +7924,7 @@
         <v>56.51651651651652</v>
       </c>
       <c r="B943">
-        <v>0.3835498780832726</v>
+        <v>-2.77993268644606</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -7932,7 +7932,7 @@
         <v>56.57657657657658</v>
       </c>
       <c r="B944">
-        <v>0.3910115860757558</v>
+        <v>-2.319224655701442</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -7940,7 +7940,7 @@
         <v>56.63663663663664</v>
       </c>
       <c r="B945">
-        <v>0.402482369347946</v>
+        <v>-1.611091161307503</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -7948,7 +7948,7 @@
         <v>56.6966966966967</v>
       </c>
       <c r="B946">
-        <v>0.4167751786015274</v>
+        <v>-0.728813022865155</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -7956,7 +7956,7 @@
         <v>56.75675675675676</v>
       </c>
       <c r="B947">
-        <v>0.4324135692201864</v>
+        <v>0.2364706548019073</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -7964,7 +7964,7 @@
         <v>56.81681681681682</v>
       </c>
       <c r="B948">
-        <v>0.4477842151566002</v>
+        <v>1.185176968786458</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -7972,7 +7972,7 @@
         <v>56.87687687687688</v>
       </c>
       <c r="B949">
-        <v>0.4613033444841476</v>
+        <v>2.019552482541094</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7980,7 +7980,7 @@
         <v>56.93693693693694</v>
       </c>
       <c r="B950">
-        <v>0.4715799268651215</v>
+        <v>2.653745462476703</v>
       </c>
     </row>
     <row r="951" spans="1:2">
@@ -7988,7 +7988,7 @@
         <v>56.996996996997</v>
       </c>
       <c r="B951">
-        <v>0.4775587987977897</v>
+        <v>3.022639287273245</v>
       </c>
     </row>
     <row r="952" spans="1:2">
@@ -7996,7 +7996,7 @@
         <v>57.05705705705706</v>
       </c>
       <c r="B952">
-        <v>0.4786290005462401</v>
+        <v>3.088538164920489</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8004,7 +8004,7 @@
         <v>57.11711711711712</v>
       </c>
       <c r="B953">
-        <v>0.474686201831489</v>
+        <v>2.845018737841616</v>
       </c>
     </row>
     <row r="954" spans="1:2">
@@ -8012,7 +8012,7 @@
         <v>57.17717717717718</v>
       </c>
       <c r="B954">
-        <v>0.4661428384857699</v>
+        <v>2.317554073830511</v>
       </c>
     </row>
     <row r="955" spans="1:2">
@@ -8020,7 +8020,7 @@
         <v>57.23723723723724</v>
       </c>
       <c r="B955">
-        <v>0.4538849789246949</v>
+        <v>1.560849656286412</v>
       </c>
     </row>
     <row r="956" spans="1:2">
@@ -8028,7 +8028,7 @@
         <v>57.2972972972973</v>
       </c>
       <c r="B956">
-        <v>0.4391804305039388</v>
+        <v>0.6531699216362784</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8036,7 +8036,7 @@
         <v>57.35735735735736</v>
       </c>
       <c r="B957">
-        <v>0.4235476155596259</v>
+        <v>-0.3117562927166856</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8044,7 +8044,7 @@
         <v>57.41741741741742</v>
       </c>
       <c r="B958">
-        <v>0.408598778424264</v>
+        <v>-1.234414224270807</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8052,7 +8052,7 @@
         <v>57.47747747747748</v>
       </c>
       <c r="B959">
-        <v>0.39587371367872</v>
+        <v>-2.019766197698385</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8060,7 +8060,7 @@
         <v>57.53753753753754</v>
       </c>
       <c r="B960">
-        <v>0.3866811631081713</v>
+        <v>-2.587040758189333</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8068,7 +8068,7 @@
         <v>57.5975975975976</v>
       </c>
       <c r="B961">
-        <v>0.3819642176578172</v>
+        <v>-2.878039634562489</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8076,7 +8076,7 @@
         <v>57.65765765765766</v>
       </c>
       <c r="B962">
-        <v>0.3822035668808179</v>
+        <v>-2.863108218344754</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8084,7 +8084,7 @@
         <v>57.71771771771772</v>
       </c>
       <c r="B963">
-        <v>0.3873685209917194</v>
+        <v>-2.544157080932133</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8092,7 +8092,7 @@
         <v>57.77777777777778</v>
       </c>
       <c r="B964">
-        <v>0.3969207951384723</v>
+        <v>-1.95442671490168</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8100,7 +8100,7 @@
         <v>57.83783783783784</v>
       </c>
       <c r="B965">
-        <v>0.4098706017740688</v>
+        <v>-1.155023702575409</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8108,7 +8108,7 @@
         <v>57.8978978978979</v>
       </c>
       <c r="B966">
-        <v>0.4248792066929789</v>
+        <v>-0.2285892170604372</v>
       </c>
     </row>
     <row r="967" spans="1:2">
@@ -8116,7 +8116,7 @@
         <v>57.95795795795796</v>
       </c>
       <c r="B967">
-        <v>0.4403973228585334</v>
+        <v>0.7292441360209576</v>
       </c>
     </row>
     <row r="968" spans="1:2">
@@ -8124,7 +8124,7 @@
         <v>58.01801801801802</v>
       </c>
       <c r="B968">
-        <v>0.4548250356198165</v>
+        <v>1.619723991629903</v>
       </c>
     </row>
     <row r="969" spans="1:2">
@@ -8132,7 +8132,7 @@
         <v>58.07807807807808</v>
       </c>
       <c r="B969">
-        <v>0.4666767512776558</v>
+        <v>2.351159425270495</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8140,7 +8140,7 @@
         <v>58.13813813813814</v>
       </c>
       <c r="B970">
-        <v>0.4747341633127303</v>
+        <v>2.848362030230339</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8148,7 +8148,7 @@
         <v>58.1981981981982</v>
       </c>
       <c r="B971">
-        <v>0.4781714861511513</v>
+        <v>3.060374774935847</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8156,7 +8156,7 @@
         <v>58.25825825825826</v>
       </c>
       <c r="B972">
-        <v>0.4766400835861235</v>
+        <v>2.96569418568993</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8164,7 +8164,7 @@
         <v>58.31831831831832</v>
       </c>
       <c r="B973">
-        <v>0.4703038193990235</v>
+        <v>2.57445070304995</v>
       </c>
     </row>
     <row r="974" spans="1:2">
@@ -8172,7 +8172,7 @@
         <v>58.37837837837838</v>
       </c>
       <c r="B974">
-        <v>0.4598215468266651</v>
+        <v>1.927326200707381</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8180,7 +8180,7 @@
         <v>58.43843843843844</v>
       </c>
       <c r="B975">
-        <v>0.4462786057410025</v>
+        <v>1.091324191995366</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8188,7 +8188,7 @@
         <v>58.4984984984985</v>
       </c>
       <c r="B976">
-        <v>0.43107444939687</v>
+        <v>0.152832470483107</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8196,7 +8196,7 @@
         <v>58.55855855855856</v>
       </c>
       <c r="B977">
-        <v>0.4157780352318036</v>
+        <v>-0.791303561754635</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8204,7 +8204,7 @@
         <v>58.61861861861862</v>
       </c>
       <c r="B978">
-        <v>0.4019659222984986</v>
+        <v>-1.643774479025518</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -8212,7 +8212,7 @@
         <v>58.67867867867868</v>
       </c>
       <c r="B979">
-        <v>0.3910597820060731</v>
+        <v>-2.316836095763779</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8220,7 +8220,7 @@
         <v>58.73873873873874</v>
       </c>
       <c r="B980">
-        <v>0.3841800690102393</v>
+        <v>-2.74134075083073</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8228,7 +8228,7 @@
         <v>58.7987987987988</v>
       </c>
       <c r="B981">
-        <v>0.3820309132795927</v>
+        <v>-2.873841061760447</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8236,7 +8236,7 @@
         <v>58.85885885885886</v>
       </c>
       <c r="B982">
-        <v>0.384828058413093</v>
+        <v>-2.701036378903575</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -8244,7 +8244,7 @@
         <v>58.91891891891892</v>
       </c>
       <c r="B983">
-        <v>0.3922772205724179</v>
+        <v>-2.241106917272899</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8252,7 +8252,7 @@
         <v>58.97897897897898</v>
       </c>
       <c r="B984">
-        <v>0.4036050370885935</v>
+        <v>-1.541801852426852</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8260,7 +8260,7 @@
         <v>59.03903903903904</v>
       </c>
       <c r="B985">
-        <v>0.4176393512798848</v>
+        <v>-0.6754823653578259</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -8268,7 +8268,7 @@
         <v>59.0990990990991</v>
       </c>
       <c r="B986">
-        <v>0.4329304993862395</v>
+        <v>0.2683658002148454</v>
       </c>
     </row>
     <row r="987" spans="1:2">
@@ -8276,7 +8276,7 @@
         <v>59.15915915915916</v>
       </c>
       <c r="B987">
-        <v>0.4479010499782456</v>
+        <v>1.192375538191674</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8284,7 +8284,7 @@
         <v>59.21921921921922</v>
       </c>
       <c r="B988">
-        <v>0.4610085291387427</v>
+        <v>2.001342601308749</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8292,7 +8292,7 @@
         <v>59.27927927927928</v>
       </c>
       <c r="B989">
-        <v>0.4709043451964629</v>
+        <v>2.612034713426984</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8300,7 +8300,7 @@
         <v>59.33933933933934</v>
       </c>
       <c r="B990">
-        <v>0.4765725388622455</v>
+        <v>2.961754932430098</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8308,7 +8308,7 @@
         <v>59.3993993993994</v>
       </c>
       <c r="B991">
-        <v>0.4774340837068058</v>
+        <v>3.014778238117064</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8316,7 +8316,7 @@
         <v>59.45945945945946</v>
       </c>
       <c r="B992">
-        <v>0.4734060296433866</v>
+        <v>2.766000575250726</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8324,7 +8324,7 @@
         <v>59.51951951951952</v>
       </c>
       <c r="B993">
-        <v>0.4649094489647934</v>
+        <v>2.241427668936539</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8332,7 +8332,7 @@
         <v>59.57957957957958</v>
       </c>
       <c r="B994">
-        <v>0.4528254282278994</v>
+        <v>1.495457075112507</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -8340,7 +8340,7 @@
         <v>59.63963963963964</v>
       </c>
       <c r="B995">
-        <v>0.4384037045880551</v>
+        <v>0.6052374743544615</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -8348,7 +8348,7 @@
         <v>59.6996996996997</v>
       </c>
       <c r="B996">
-        <v>0.4231334200564233</v>
+        <v>-0.3373099088802907</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -8356,7 +8356,7 @@
         <v>59.75975975975976</v>
       </c>
       <c r="B997">
-        <v>0.4085893597649419</v>
+        <v>-1.234982649030726</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8364,7 +8364,7 @@
         <v>59.81981981981982</v>
       </c>
       <c r="B998">
-        <v>0.3962695506981651</v>
+        <v>-1.995321209185141</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8372,7 +8372,7 @@
         <v>59.87987987987988</v>
       </c>
       <c r="B999">
-        <v>0.3874409684487864</v>
+        <v>-2.540132048753395</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8380,7 +8380,7 @@
         <v>59.93993993993994</v>
       </c>
       <c r="B1000">
-        <v>0.3830092435913733</v>
+        <v>-2.813528907262279</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
@@ -8388,7 +8388,7 @@
         <v>60</v>
       </c>
       <c r="B1001">
-        <v>0.3834257665603609</v>
+        <v>-2.787665330941164</v>
       </c>
     </row>
   </sheetData>
